--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_13_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_13_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1389640.318140682</v>
+        <v>1386605.343322538</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18377903.70851122</v>
+        <v>18377903.70851123</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4941244.251829515</v>
+        <v>4941244.251829518</v>
       </c>
     </row>
     <row r="9">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8.056175065232777</v>
+      </c>
+      <c r="G3" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>9.146429456440488</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>8.056175065232777</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,10 +828,10 @@
         <v>9.146429456440488</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -983,19 +983,19 @@
         <v>8.056175065232777</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="G6" t="n">
         <v>9.146429456440488</v>
       </c>
       <c r="H6" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1062,58 +1062,58 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>8.056175065232777</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8.056175065232779</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>9.146429456440488</v>
-      </c>
-      <c r="S7" t="n">
-        <v>9.146429456440488</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>9.146429456440488</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096118</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1226,52 +1226,52 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="H9" t="n">
+      <c r="T9" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="I9" t="n">
+      <c r="U9" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>8.056175065232777</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>8.056175065232779</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1299,64 +1299,64 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>8.056175065232777</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>8.056175065232779</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>9.146429456440488</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>402.9572413489716</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>290.5556061473074</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>123.9913294081686</v>
+        <v>236.3929646098327</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>43.75856116916869</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>107.2385244785588</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>141.3962838682001</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>92.46935422024676</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S13" t="n">
         <v>171.3654368228146</v>
@@ -1587,13 +1587,13 @@
         <v>279.9289690666107</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>402.9572413489716</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>290.5556061473074</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>95.5595853423645</v>
       </c>
       <c r="T14" t="n">
-        <v>212.6137601753971</v>
+        <v>87.66206940262606</v>
       </c>
       <c r="U14" t="n">
         <v>254.355186029715</v>
       </c>
       <c r="V14" t="n">
-        <v>96.01186484086205</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1770,7 +1770,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>60.26197553128768</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.8226104303953</v>
       </c>
       <c r="H16" t="n">
         <v>141.3962838682001</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>92.46935422024676</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S16" t="n">
-        <v>171.3654368228146</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>233.9261601361662</v>
@@ -1830,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>159.8358684717878</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>261.3321180626203</v>
+        <v>155.6932805391443</v>
       </c>
       <c r="G17" t="n">
         <v>402.9572413489716</v>
       </c>
       <c r="H17" t="n">
-        <v>290.5556061473074</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>20.57509085115342</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>95.5595853423645</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.6137601753971</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.355186029715</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>35.72062558238349</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>164.8226104303953</v>
+        <v>38.67344476897313</v>
       </c>
       <c r="H19" t="n">
-        <v>141.3962838682001</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>92.46935422024676</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>171.3654368228146</v>
       </c>
       <c r="T19" t="n">
         <v>233.9261601361662</v>
@@ -2061,7 +2061,7 @@
         <v>279.9289690666107</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>55.08894447682434</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>402.9572413489716</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>290.5556061473074</v>
       </c>
       <c r="I20" t="n">
-        <v>20.57509085115342</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>95.5595853423645</v>
       </c>
       <c r="T20" t="n">
         <v>212.6137601753971</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.355186029715</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>185.4745796377197</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>164.8226104303953</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>141.3962838682001</v>
       </c>
       <c r="I22" t="n">
         <v>92.46935422024676</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>171.3654368228146</v>
       </c>
       <c r="T22" t="n">
         <v>233.9261601361662</v>
@@ -2298,10 +2298,10 @@
         <v>279.9289690666107</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>35.57542327335066</v>
       </c>
       <c r="W22" t="n">
-        <v>256.9488958871451</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -2338,7 +2338,7 @@
         <v>290.5556061473074</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>20.57509085115342</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>95.5595853423645</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.6137601753971</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.355186029715</v>
+        <v>222.4245781340895</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2386,7 +2386,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>77.39844375915629</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.779362253276085</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.8226104303953</v>
       </c>
       <c r="H25" t="n">
         <v>141.3962838682001</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>171.3654368228146</v>
       </c>
       <c r="T25" t="n">
         <v>233.9261601361662</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>167.2186831686729</v>
       </c>
     </row>
     <row r="26">
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>95.5595853423645</v>
       </c>
       <c r="T26" t="n">
-        <v>212.6137601753971</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.355186029715</v>
+        <v>91.36952935717019</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>99.88286635060643</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2718,22 +2718,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>36.83564896909268</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.8226104303953</v>
       </c>
       <c r="H28" t="n">
-        <v>141.3962838682001</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>92.46935422024676</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>171.3654368228146</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.9261601361662</v>
       </c>
       <c r="U28" t="n">
-        <v>244.6276826356759</v>
+        <v>279.9289690666107</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2778,10 +2778,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>27.3578245010294</v>
+        <v>402.9572413489716</v>
       </c>
       <c r="H29" t="n">
         <v>290.5556061473074</v>
@@ -2845,10 +2845,10 @@
         <v>95.5595853423645</v>
       </c>
       <c r="T29" t="n">
-        <v>212.6137601753971</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.355186029715</v>
+        <v>91.36952935717019</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>111.84531659821</v>
+        <v>130.1890040789498</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.8226104303953</v>
       </c>
       <c r="H31" t="n">
-        <v>141.3962838682001</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>92.46935422024676</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>171.3654368228146</v>
@@ -3012,10 +3012,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3040,7 +3040,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>41.22069107790711</v>
       </c>
       <c r="G32" t="n">
         <v>402.9572413489716</v>
@@ -3094,7 +3094,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>21.03754700479474</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -3192,7 +3192,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>142.0921571312323</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.8226104303953</v>
+        <v>42.35655241912428</v>
       </c>
       <c r="H34" t="n">
-        <v>141.3962838682001</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>171.3654368228146</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.9261601361662</v>
       </c>
       <c r="U34" t="n">
         <v>279.9289690666107</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>239.8847882625413</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3283,7 +3283,7 @@
         <v>402.9572413489716</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>290.5556061473074</v>
       </c>
       <c r="I35" t="n">
         <v>20.57509085115342</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>95.5595853423645</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.6137601753971</v>
       </c>
       <c r="U35" t="n">
         <v>254.355186029715</v>
       </c>
       <c r="V35" t="n">
-        <v>245.5490699234468</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>164.1475205020613</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -3441,7 +3441,7 @@
         <v>164.8226104303953</v>
       </c>
       <c r="H37" t="n">
-        <v>141.3962838682001</v>
+        <v>127.8277073002067</v>
       </c>
       <c r="I37" t="n">
         <v>92.46935422024676</v>
@@ -3474,7 +3474,7 @@
         <v>50.46000275058582</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>171.3654368228146</v>
       </c>
       <c r="T37" t="n">
         <v>233.9261601361662</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3505,10 +3505,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>205.8421188184073</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>20.57509085115342</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>95.5595853423645</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>98.80348108336149</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>132.7353755052735</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>141.3962838682001</v>
       </c>
       <c r="I40" t="n">
-        <v>92.46935422024676</v>
+        <v>78.72332945712466</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>148.403048380605</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.9572413489716</v>
       </c>
       <c r="H41" t="n">
-        <v>237.659252091093</v>
+        <v>290.5556061473074</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>20.57509085115342</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>95.5595853423645</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.6137601753971</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.355186029715</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.572353075054018</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>59.45669912716311</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
@@ -3957,16 +3957,16 @@
         <v>279.9289690666107</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3985,19 +3985,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>404.1182748406973</v>
+        <v>99.48496534529164</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.9572413489716</v>
       </c>
       <c r="H44" t="n">
-        <v>290.5556061473074</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>20.57509085115342</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.355186029715</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>36.83564896909246</v>
       </c>
       <c r="G46" t="n">
-        <v>159.6394008889213</v>
+        <v>164.8226104303953</v>
       </c>
       <c r="H46" t="n">
-        <v>141.3962838682001</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>92.46935422024676</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>171.3654368228146</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.9261601361662</v>
       </c>
       <c r="U46" t="n">
         <v>279.9289690666107</v>
@@ -4333,25 +4333,25 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="K2" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="L2" t="n">
-        <v>18.84164468026741</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="M2" t="n">
-        <v>27.89660984214349</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="N2" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="O2" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="P2" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="R2" t="n">
         <v>36.58571782576195</v>
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>36.58571782576195</v>
+      </c>
+      <c r="C3" t="n">
+        <v>36.58571782576195</v>
+      </c>
+      <c r="D3" t="n">
+        <v>36.58571782576195</v>
+      </c>
+      <c r="E3" t="n">
+        <v>36.58571782576195</v>
+      </c>
+      <c r="F3" t="n">
+        <v>28.44816725481975</v>
+      </c>
+      <c r="G3" t="n">
+        <v>19.20934962205158</v>
+      </c>
+      <c r="H3" t="n">
         <v>9.97053198928341</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9.97053198928341</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.97053198928341</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9.97053198928341</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9.97053198928341</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9.97053198928341</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.7317143565152391</v>
       </c>
       <c r="I3" t="n">
         <v>0.7317143565152391</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.786679518391322</v>
       </c>
       <c r="K3" t="n">
-        <v>9.786679518391322</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="L3" t="n">
-        <v>18.84164468026741</v>
+        <v>27.89660984214349</v>
       </c>
       <c r="M3" t="n">
-        <v>27.53075266388587</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="N3" t="n">
-        <v>27.53075266388587</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="O3" t="n">
-        <v>27.53075266388587</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="P3" t="n">
         <v>36.58571782576195</v>
@@ -4451,10 +4451,10 @@
         <v>36.58571782576195</v>
       </c>
       <c r="X3" t="n">
-        <v>28.44816725481975</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.20934962205158</v>
+        <v>36.58571782576195</v>
       </c>
     </row>
     <row r="4">
@@ -4476,7 +4476,7 @@
         <v>9.97053198928341</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="G4" t="n">
         <v>0.7317143565152391</v>
@@ -4491,22 +4491,22 @@
         <v>9.786679518391322</v>
       </c>
       <c r="K4" t="n">
-        <v>18.84164468026741</v>
+        <v>9.786679518391322</v>
       </c>
       <c r="L4" t="n">
-        <v>27.89660984214349</v>
+        <v>9.786679518391322</v>
       </c>
       <c r="M4" t="n">
-        <v>27.89660984214349</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="N4" t="n">
-        <v>27.89660984214349</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="O4" t="n">
-        <v>27.89660984214349</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="P4" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="Q4" t="n">
         <v>36.58571782576195</v>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30.40494220167654</v>
+        <v>30.40494220167653</v>
       </c>
       <c r="C5" t="n">
-        <v>24.32075555535073</v>
+        <v>24.32075555535072</v>
       </c>
       <c r="D5" t="n">
         <v>23.89722968881533</v>
@@ -4567,28 +4567,28 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="K5" t="n">
-        <v>9.786679518391322</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="L5" t="n">
-        <v>18.84164468026741</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="M5" t="n">
-        <v>18.84164468026741</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="N5" t="n">
-        <v>18.84164468026741</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="O5" t="n">
-        <v>18.84164468026741</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="P5" t="n">
-        <v>18.84164468026741</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="Q5" t="n">
-        <v>27.53075266388587</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="R5" t="n">
         <v>36.58571782576195</v>
@@ -4631,34 +4631,34 @@
         <v>28.44816725481975</v>
       </c>
       <c r="E6" t="n">
-        <v>28.44816725481975</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="F6" t="n">
-        <v>28.44816725481975</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="G6" t="n">
-        <v>19.20934962205158</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="H6" t="n">
-        <v>9.97053198928341</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="I6" t="n">
         <v>0.7317143565152391</v>
       </c>
       <c r="J6" t="n">
+        <v>0.7317143565152391</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7317143565152391</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.7317143565152391</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7317143565152391</v>
+      </c>
+      <c r="N6" t="n">
         <v>9.420822340133704</v>
-      </c>
-      <c r="K6" t="n">
-        <v>18.47578750200979</v>
-      </c>
-      <c r="L6" t="n">
-        <v>18.47578750200979</v>
-      </c>
-      <c r="M6" t="n">
-        <v>18.47578750200979</v>
-      </c>
-      <c r="N6" t="n">
-        <v>18.47578750200979</v>
       </c>
       <c r="O6" t="n">
         <v>18.47578750200979</v>
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.10808256022561</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="C7" t="n">
-        <v>18.10808256022561</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="D7" t="n">
-        <v>18.10808256022561</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="E7" t="n">
-        <v>18.10808256022561</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="F7" t="n">
-        <v>18.10808256022561</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="G7" t="n">
-        <v>18.10808256022561</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="H7" t="n">
-        <v>8.86926492745744</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="I7" t="n">
         <v>0.7317143565152391</v>
       </c>
       <c r="J7" t="n">
-        <v>9.420822340133704</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="K7" t="n">
+        <v>0.7317143565152391</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9.786679518391322</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9.786679518391322</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.786679518391322</v>
+      </c>
+      <c r="O7" t="n">
         <v>18.47578750200979</v>
-      </c>
-      <c r="L7" t="n">
-        <v>18.47578750200979</v>
-      </c>
-      <c r="M7" t="n">
-        <v>27.53075266388587</v>
-      </c>
-      <c r="N7" t="n">
-        <v>27.53075266388587</v>
-      </c>
-      <c r="O7" t="n">
-        <v>27.53075266388587</v>
       </c>
       <c r="P7" t="n">
         <v>27.53075266388587</v>
@@ -4749,28 +4749,28 @@
         <v>36.58571782576195</v>
       </c>
       <c r="R7" t="n">
+        <v>36.58571782576195</v>
+      </c>
+      <c r="S7" t="n">
+        <v>36.58571782576195</v>
+      </c>
+      <c r="T7" t="n">
+        <v>36.58571782576195</v>
+      </c>
+      <c r="U7" t="n">
+        <v>36.58571782576195</v>
+      </c>
+      <c r="V7" t="n">
         <v>27.34690019299378</v>
       </c>
-      <c r="S7" t="n">
-        <v>18.10808256022561</v>
-      </c>
-      <c r="T7" t="n">
-        <v>18.10808256022561</v>
-      </c>
-      <c r="U7" t="n">
-        <v>18.10808256022561</v>
-      </c>
-      <c r="V7" t="n">
-        <v>18.10808256022561</v>
-      </c>
       <c r="W7" t="n">
-        <v>18.10808256022561</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="X7" t="n">
-        <v>18.10808256022561</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.10808256022561</v>
+        <v>27.34690019299378</v>
       </c>
     </row>
     <row r="8">
@@ -4795,7 +4795,7 @@
         <v>5.419594423278994</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7317143565152391</v>
+        <v>0.7317143565152451</v>
       </c>
       <c r="H8" t="n">
         <v>0.7317143565152391</v>
@@ -4804,25 +4804,25 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J8" t="n">
+        <v>0.7317143565152391</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.7317143565152391</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.7317143565152391</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7317143565152391</v>
+      </c>
+      <c r="N8" t="n">
         <v>9.420822340133704</v>
       </c>
-      <c r="K8" t="n">
-        <v>9.420822340133704</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>18.47578750200979</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>27.53075266388587</v>
-      </c>
-      <c r="N8" t="n">
-        <v>36.58571782576195</v>
-      </c>
-      <c r="O8" t="n">
-        <v>36.58571782576195</v>
-      </c>
-      <c r="P8" t="n">
-        <v>36.58571782576195</v>
       </c>
       <c r="Q8" t="n">
         <v>36.58571782576195</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28.44816725481975</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="C9" t="n">
-        <v>28.44816725481975</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="D9" t="n">
-        <v>28.44816725481975</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="E9" t="n">
-        <v>28.44816725481975</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="F9" t="n">
-        <v>28.44816725481975</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="G9" t="n">
-        <v>19.20934962205158</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="H9" t="n">
-        <v>9.97053198928341</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="I9" t="n">
         <v>0.7317143565152391</v>
@@ -4889,16 +4889,16 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.786679518391322</v>
       </c>
       <c r="M9" t="n">
-        <v>9.420822340133704</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="N9" t="n">
-        <v>18.47578750200979</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="O9" t="n">
-        <v>27.53075266388587</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="P9" t="n">
         <v>36.58571782576195</v>
@@ -4910,25 +4910,25 @@
         <v>36.58571782576195</v>
       </c>
       <c r="S9" t="n">
-        <v>28.44816725481975</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="T9" t="n">
-        <v>28.44816725481975</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="U9" t="n">
-        <v>28.44816725481975</v>
+        <v>8.86926492745744</v>
       </c>
       <c r="V9" t="n">
-        <v>28.44816725481975</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="W9" t="n">
-        <v>28.44816725481975</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="X9" t="n">
-        <v>28.44816725481975</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="Y9" t="n">
-        <v>28.44816725481975</v>
+        <v>0.7317143565152391</v>
       </c>
     </row>
     <row r="10">
@@ -4947,61 +4947,61 @@
         <v>27.34690019299378</v>
       </c>
       <c r="E10" t="n">
-        <v>19.20934962205158</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="F10" t="n">
-        <v>9.97053198928341</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="G10" t="n">
-        <v>9.97053198928341</v>
+        <v>8.86926492745744</v>
       </c>
       <c r="H10" t="n">
-        <v>9.97053198928341</v>
+        <v>8.86926492745744</v>
       </c>
       <c r="I10" t="n">
         <v>0.7317143565152391</v>
       </c>
       <c r="J10" t="n">
-        <v>9.420822340133704</v>
+        <v>9.786679518391322</v>
       </c>
       <c r="K10" t="n">
-        <v>9.420822340133704</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="L10" t="n">
-        <v>9.420822340133704</v>
+        <v>27.89660984214349</v>
       </c>
       <c r="M10" t="n">
-        <v>9.420822340133704</v>
+        <v>27.89660984214349</v>
       </c>
       <c r="N10" t="n">
-        <v>9.420822340133704</v>
+        <v>27.89660984214349</v>
       </c>
       <c r="O10" t="n">
-        <v>18.47578750200979</v>
+        <v>27.89660984214349</v>
       </c>
       <c r="P10" t="n">
-        <v>27.53075266388587</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="Q10" t="n">
         <v>36.58571782576195</v>
       </c>
       <c r="R10" t="n">
-        <v>27.34690019299378</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="S10" t="n">
-        <v>27.34690019299378</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="T10" t="n">
-        <v>27.34690019299378</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="U10" t="n">
-        <v>27.34690019299378</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="V10" t="n">
-        <v>27.34690019299378</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="W10" t="n">
-        <v>27.34690019299378</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="X10" t="n">
         <v>27.34690019299378</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>863.4922142729763</v>
+        <v>749.9552090187701</v>
       </c>
       <c r="C11" t="n">
-        <v>453.3676235862465</v>
+        <v>339.8306183320402</v>
       </c>
       <c r="D11" t="n">
-        <v>453.3676235862465</v>
+        <v>339.8306183320402</v>
       </c>
       <c r="E11" t="n">
-        <v>453.3676235862465</v>
+        <v>339.8306183320402</v>
       </c>
       <c r="F11" t="n">
-        <v>453.3676235862465</v>
+        <v>339.8306183320402</v>
       </c>
       <c r="G11" t="n">
-        <v>46.34010707213374</v>
+        <v>339.8306183320402</v>
       </c>
       <c r="H11" t="n">
         <v>46.34010707213374</v>
@@ -5044,19 +5044,19 @@
         <v>115.227699735548</v>
       </c>
       <c r="K11" t="n">
-        <v>239.0214437614154</v>
+        <v>688.686524753203</v>
       </c>
       <c r="L11" t="n">
-        <v>812.4802687790705</v>
+        <v>857.2088243614024</v>
       </c>
       <c r="M11" t="n">
-        <v>1385.939093796726</v>
+        <v>1057.548475611245</v>
       </c>
       <c r="N11" t="n">
-        <v>1872.266751674374</v>
+        <v>1262.998424260395</v>
       </c>
       <c r="O11" t="n">
-        <v>2060.866531503903</v>
+        <v>1836.45724927805</v>
       </c>
       <c r="P11" t="n">
         <v>2207.85917483041</v>
@@ -5083,10 +5083,10 @@
         <v>1398.957161016424</v>
       </c>
       <c r="X11" t="n">
-        <v>1273.713393937466</v>
+        <v>1160.17638868326</v>
       </c>
       <c r="Y11" t="n">
-        <v>1273.713393937466</v>
+        <v>1160.17638868326</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>46.34010707213374</v>
       </c>
       <c r="I12" t="n">
-        <v>56.71175580930699</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="J12" t="n">
-        <v>90.11950605479974</v>
+        <v>246.5850254595555</v>
       </c>
       <c r="K12" t="n">
-        <v>178.8713763461114</v>
+        <v>820.0438504772105</v>
       </c>
       <c r="L12" t="n">
-        <v>565.4909648323699</v>
+        <v>958.142321912788</v>
       </c>
       <c r="M12" t="n">
-        <v>1138.949789850025</v>
+        <v>1127.136256003786</v>
       </c>
       <c r="N12" t="n">
-        <v>1712.40861486768</v>
+        <v>1306.438457863906</v>
       </c>
       <c r="O12" t="n">
-        <v>1867.436082985752</v>
+        <v>1461.465925981979</v>
       </c>
       <c r="P12" t="n">
-        <v>1984.029401784995</v>
+        <v>1578.059244781221</v>
       </c>
       <c r="Q12" t="n">
         <v>2041.751673158611</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>421.1286910250514</v>
+        <v>882.3885984777794</v>
       </c>
       <c r="C13" t="n">
-        <v>250.0353185867679</v>
+        <v>711.2952260394959</v>
       </c>
       <c r="D13" t="n">
-        <v>90.54067390967788</v>
+        <v>551.8005813624059</v>
       </c>
       <c r="E13" t="n">
-        <v>90.54067390967788</v>
+        <v>390.8897662307253</v>
       </c>
       <c r="F13" t="n">
-        <v>46.34010707213374</v>
+        <v>390.8897662307253</v>
       </c>
       <c r="G13" t="n">
-        <v>46.34010707213374</v>
+        <v>282.5680243331911</v>
       </c>
       <c r="H13" t="n">
-        <v>46.34010707213374</v>
+        <v>139.7434951733931</v>
       </c>
       <c r="I13" t="n">
         <v>46.34010707213374</v>
       </c>
       <c r="J13" t="n">
-        <v>113.2867408723821</v>
+        <v>113.286740872382</v>
       </c>
       <c r="K13" t="n">
-        <v>354.7109984607102</v>
+        <v>354.7109984607101</v>
       </c>
       <c r="L13" t="n">
-        <v>725.7742600107268</v>
+        <v>725.7742600107267</v>
       </c>
       <c r="M13" t="n">
         <v>1132.247446864443</v>
@@ -5223,28 +5223,28 @@
         <v>2317.005353606687</v>
       </c>
       <c r="R13" t="n">
-        <v>2317.005353606687</v>
+        <v>2266.035653858621</v>
       </c>
       <c r="S13" t="n">
-        <v>2143.908952775561</v>
+        <v>2092.939253027495</v>
       </c>
       <c r="T13" t="n">
-        <v>1907.619902132969</v>
+        <v>1856.650202384903</v>
       </c>
       <c r="U13" t="n">
-        <v>1624.863367722251</v>
+        <v>1573.893667974185</v>
       </c>
       <c r="V13" t="n">
-        <v>1350.977622661773</v>
+        <v>1573.893667974185</v>
       </c>
       <c r="W13" t="n">
-        <v>1071.907958170648</v>
+        <v>1294.824003483059</v>
       </c>
       <c r="X13" t="n">
-        <v>833.564096030331</v>
+        <v>1294.824003483059</v>
       </c>
       <c r="Y13" t="n">
-        <v>608.8283974190957</v>
+        <v>1070.088304871824</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>857.831553493186</v>
+        <v>339.8306183320402</v>
       </c>
       <c r="C14" t="n">
-        <v>857.831553493186</v>
+        <v>339.8306183320402</v>
       </c>
       <c r="D14" t="n">
-        <v>453.3676235862465</v>
+        <v>339.8306183320402</v>
       </c>
       <c r="E14" t="n">
-        <v>453.3676235862465</v>
+        <v>339.8306183320402</v>
       </c>
       <c r="F14" t="n">
-        <v>453.3676235862465</v>
+        <v>339.8306183320402</v>
       </c>
       <c r="G14" t="n">
-        <v>46.34010707213374</v>
+        <v>339.8306183320402</v>
       </c>
       <c r="H14" t="n">
         <v>46.34010707213374</v>
@@ -5278,16 +5278,16 @@
         <v>46.34010707213374</v>
       </c>
       <c r="J14" t="n">
-        <v>115.227699735548</v>
+        <v>442.0035266232771</v>
       </c>
       <c r="K14" t="n">
-        <v>239.0214437614154</v>
+        <v>1015.462351640932</v>
       </c>
       <c r="L14" t="n">
-        <v>812.4802687790705</v>
+        <v>1466.477151775382</v>
       </c>
       <c r="M14" t="n">
-        <v>1385.939093796726</v>
+        <v>1666.816803025225</v>
       </c>
       <c r="N14" t="n">
         <v>1872.266751674374</v>
@@ -5308,22 +5308,22 @@
         <v>2220.480519927531</v>
       </c>
       <c r="T14" t="n">
-        <v>2005.719146012989</v>
+        <v>2131.932975076394</v>
       </c>
       <c r="U14" t="n">
-        <v>1748.794715679943</v>
+        <v>1875.008544743348</v>
       </c>
       <c r="V14" t="n">
-        <v>1651.813034022507</v>
+        <v>1525.170990079829</v>
       </c>
       <c r="W14" t="n">
-        <v>1268.052733157675</v>
+        <v>1141.410689214998</v>
       </c>
       <c r="X14" t="n">
-        <v>1268.052733157675</v>
+        <v>740.7672913839501</v>
       </c>
       <c r="Y14" t="n">
-        <v>1268.052733157675</v>
+        <v>339.8306183320402</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>56.71175580930699</v>
       </c>
       <c r="J15" t="n">
-        <v>90.11950605479974</v>
+        <v>333.787910029433</v>
       </c>
       <c r="K15" t="n">
-        <v>178.8713763461114</v>
+        <v>735.1094075974056</v>
       </c>
       <c r="L15" t="n">
-        <v>316.9698477816888</v>
+        <v>873.2078790329831</v>
       </c>
       <c r="M15" t="n">
-        <v>890.4286727993439</v>
+        <v>1042.201813123982</v>
       </c>
       <c r="N15" t="n">
-        <v>1463.887497816999</v>
+        <v>1221.504014984101</v>
       </c>
       <c r="O15" t="n">
-        <v>1867.436082985752</v>
+        <v>1376.531483102174</v>
       </c>
       <c r="P15" t="n">
-        <v>1984.029401784995</v>
+        <v>1493.124801901416</v>
       </c>
       <c r="Q15" t="n">
-        <v>2041.751673158611</v>
+        <v>1956.817230278806</v>
       </c>
       <c r="R15" t="n">
         <v>2041.751673158611</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>421.1286910250514</v>
+        <v>620.1488820547022</v>
       </c>
       <c r="C16" t="n">
-        <v>250.0353185867679</v>
+        <v>449.0555096164187</v>
       </c>
       <c r="D16" t="n">
-        <v>189.1646362319318</v>
+        <v>449.0555096164187</v>
       </c>
       <c r="E16" t="n">
-        <v>189.1646362319318</v>
+        <v>449.0555096164187</v>
       </c>
       <c r="F16" t="n">
-        <v>189.1646362319318</v>
+        <v>449.0555096164187</v>
       </c>
       <c r="G16" t="n">
-        <v>189.1646362319318</v>
+        <v>282.5680243331911</v>
       </c>
       <c r="H16" t="n">
-        <v>46.34010707213374</v>
+        <v>139.7434951733931</v>
       </c>
       <c r="I16" t="n">
         <v>46.34010707213374</v>
       </c>
       <c r="J16" t="n">
-        <v>113.2867408723823</v>
+        <v>113.286740872382</v>
       </c>
       <c r="K16" t="n">
-        <v>354.7109984607102</v>
+        <v>354.7109984607101</v>
       </c>
       <c r="L16" t="n">
-        <v>725.7742600107267</v>
+        <v>725.7742600107269</v>
       </c>
       <c r="M16" t="n">
         <v>1132.247446864443</v>
@@ -5460,28 +5460,28 @@
         <v>2317.005353606687</v>
       </c>
       <c r="R16" t="n">
-        <v>2317.005353606687</v>
+        <v>2266.035653858621</v>
       </c>
       <c r="S16" t="n">
-        <v>2143.908952775561</v>
+        <v>2266.035653858621</v>
       </c>
       <c r="T16" t="n">
-        <v>1907.619902132969</v>
+        <v>2029.746603216028</v>
       </c>
       <c r="U16" t="n">
-        <v>1624.863367722251</v>
+        <v>1746.990068805311</v>
       </c>
       <c r="V16" t="n">
-        <v>1350.977622661773</v>
+        <v>1473.104323744833</v>
       </c>
       <c r="W16" t="n">
-        <v>1071.907958170648</v>
+        <v>1194.034659253707</v>
       </c>
       <c r="X16" t="n">
-        <v>833.564096030331</v>
+        <v>1032.584287059982</v>
       </c>
       <c r="Y16" t="n">
-        <v>608.8283974190957</v>
+        <v>807.8485884487466</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1436.076821231652</v>
+        <v>1435.098369694609</v>
       </c>
       <c r="C17" t="n">
-        <v>1436.076821231652</v>
+        <v>1024.973779007879</v>
       </c>
       <c r="D17" t="n">
-        <v>1031.612891324712</v>
+        <v>1024.973779007879</v>
       </c>
       <c r="E17" t="n">
-        <v>1031.612891324712</v>
+        <v>610.633563524776</v>
       </c>
       <c r="F17" t="n">
-        <v>767.6410548978231</v>
+        <v>453.3676235862465</v>
       </c>
       <c r="G17" t="n">
-        <v>360.6135383837104</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="H17" t="n">
-        <v>67.12302712380385</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="I17" t="n">
-        <v>46.34010707213373</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="J17" t="n">
         <v>115.227699735548</v>
       </c>
       <c r="K17" t="n">
-        <v>239.0214437614154</v>
+        <v>688.686524753203</v>
       </c>
       <c r="L17" t="n">
-        <v>407.5437433696148</v>
+        <v>857.2088243614024</v>
       </c>
       <c r="M17" t="n">
-        <v>888.513453506266</v>
+        <v>1057.548475611245</v>
       </c>
       <c r="N17" t="n">
-        <v>1461.972278523921</v>
+        <v>1262.998424260395</v>
       </c>
       <c r="O17" t="n">
-        <v>1650.57205835345</v>
+        <v>1634.400349812755</v>
       </c>
       <c r="P17" t="n">
-        <v>1797.564701679957</v>
+        <v>2207.85917483041</v>
       </c>
       <c r="Q17" t="n">
         <v>2298.734565938129</v>
@@ -5542,25 +5542,25 @@
         <v>2317.005353606687</v>
       </c>
       <c r="S17" t="n">
-        <v>2220.480519927531</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="T17" t="n">
-        <v>2220.480519927531</v>
+        <v>2102.243979692144</v>
       </c>
       <c r="U17" t="n">
-        <v>2220.480519927531</v>
+        <v>1845.319549359099</v>
       </c>
       <c r="V17" t="n">
-        <v>2220.480519927531</v>
+        <v>1845.319549359099</v>
       </c>
       <c r="W17" t="n">
-        <v>1836.720219062699</v>
+        <v>1845.319549359099</v>
       </c>
       <c r="X17" t="n">
-        <v>1436.076821231652</v>
+        <v>1845.319549359099</v>
       </c>
       <c r="Y17" t="n">
-        <v>1436.076821231652</v>
+        <v>1845.319549359099</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>108.2987238366352</v>
       </c>
       <c r="H18" t="n">
-        <v>46.34010707213373</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="I18" t="n">
-        <v>46.34010707213373</v>
+        <v>56.71175580930699</v>
       </c>
       <c r="J18" t="n">
-        <v>323.4162612922597</v>
+        <v>333.787910029433</v>
       </c>
       <c r="K18" t="n">
-        <v>821.5491165543277</v>
+        <v>735.1094075974056</v>
       </c>
       <c r="L18" t="n">
-        <v>959.6475879899052</v>
+        <v>873.2078790329831</v>
       </c>
       <c r="M18" t="n">
-        <v>1533.10641300756</v>
+        <v>1042.201813123982</v>
       </c>
       <c r="N18" t="n">
-        <v>1712.40861486768</v>
+        <v>1221.504014984101</v>
       </c>
       <c r="O18" t="n">
-        <v>1867.436082985752</v>
+        <v>1376.531483102174</v>
       </c>
       <c r="P18" t="n">
-        <v>1984.029401784995</v>
+        <v>1493.124801901416</v>
       </c>
       <c r="Q18" t="n">
-        <v>2041.751673158611</v>
+        <v>1956.817230278806</v>
       </c>
       <c r="R18" t="n">
         <v>2041.751673158611</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>817.1411371685882</v>
+        <v>421.1286910250514</v>
       </c>
       <c r="C19" t="n">
-        <v>646.0477647303047</v>
+        <v>250.0353185867679</v>
       </c>
       <c r="D19" t="n">
-        <v>609.9663247480992</v>
+        <v>250.0353185867679</v>
       </c>
       <c r="E19" t="n">
-        <v>449.0555096164187</v>
+        <v>250.0353185867679</v>
       </c>
       <c r="F19" t="n">
-        <v>449.0555096164187</v>
+        <v>85.40419269735912</v>
       </c>
       <c r="G19" t="n">
-        <v>282.5680243331911</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="H19" t="n">
-        <v>139.7434951733931</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="I19" t="n">
-        <v>46.34010707213373</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="J19" t="n">
-        <v>113.2867408723822</v>
+        <v>113.2867408723819</v>
       </c>
       <c r="K19" t="n">
-        <v>354.7109984607102</v>
+        <v>354.71099846071</v>
       </c>
       <c r="L19" t="n">
-        <v>725.7742600107268</v>
+        <v>725.7742600107267</v>
       </c>
       <c r="M19" t="n">
         <v>1132.247446864443</v>
@@ -5688,37 +5688,37 @@
         <v>1527.508388525978</v>
       </c>
       <c r="O19" t="n">
-        <v>1892.756382698928</v>
+        <v>1892.756382698929</v>
       </c>
       <c r="P19" t="n">
-        <v>2188.865637888952</v>
+        <v>2188.865637888953</v>
       </c>
       <c r="Q19" t="n">
         <v>2317.005353606687</v>
       </c>
       <c r="R19" t="n">
-        <v>2266.03565385862</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="S19" t="n">
-        <v>2266.03565385862</v>
+        <v>2143.908952775561</v>
       </c>
       <c r="T19" t="n">
-        <v>2029.746603216028</v>
+        <v>1907.619902132969</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.99006880531</v>
+        <v>1624.863367722251</v>
       </c>
       <c r="V19" t="n">
-        <v>1746.99006880531</v>
+        <v>1350.977622661773</v>
       </c>
       <c r="W19" t="n">
-        <v>1467.920404314184</v>
+        <v>1071.907958170648</v>
       </c>
       <c r="X19" t="n">
-        <v>1229.576542173868</v>
+        <v>833.564096030331</v>
       </c>
       <c r="Y19" t="n">
-        <v>1004.840843562633</v>
+        <v>608.8283974190957</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>950.8263541456678</v>
+        <v>1561.446655439822</v>
       </c>
       <c r="C20" t="n">
-        <v>895.180955684229</v>
+        <v>1151.322064753092</v>
       </c>
       <c r="D20" t="n">
-        <v>895.180955684229</v>
+        <v>746.858134846153</v>
       </c>
       <c r="E20" t="n">
-        <v>895.180955684229</v>
+        <v>746.858134846153</v>
       </c>
       <c r="F20" t="n">
-        <v>474.1505436379166</v>
+        <v>746.858134846153</v>
       </c>
       <c r="G20" t="n">
-        <v>67.12302712380387</v>
+        <v>339.8306183320402</v>
       </c>
       <c r="H20" t="n">
-        <v>67.12302712380387</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="I20" t="n">
         <v>46.34010707213374</v>
       </c>
       <c r="J20" t="n">
-        <v>115.227699735548</v>
+        <v>442.0035266232771</v>
       </c>
       <c r="K20" t="n">
-        <v>371.3738296320809</v>
+        <v>565.7972706491446</v>
       </c>
       <c r="L20" t="n">
-        <v>539.8961292402803</v>
+        <v>1139.2560956668</v>
       </c>
       <c r="M20" t="n">
-        <v>1113.354954257935</v>
+        <v>1339.595746916642</v>
       </c>
       <c r="N20" t="n">
-        <v>1318.804902907085</v>
+        <v>1545.045695565792</v>
       </c>
       <c r="O20" t="n">
-        <v>1507.404682736614</v>
+        <v>1733.645475395321</v>
       </c>
       <c r="P20" t="n">
-        <v>2080.863507754269</v>
+        <v>1880.638118721828</v>
       </c>
       <c r="Q20" t="n">
         <v>2171.738898861988</v>
@@ -5779,25 +5779,25 @@
         <v>2317.005353606687</v>
       </c>
       <c r="S20" t="n">
-        <v>2317.005353606687</v>
+        <v>2220.480519927531</v>
       </c>
       <c r="T20" t="n">
-        <v>2102.243979692144</v>
+        <v>2005.719146012989</v>
       </c>
       <c r="U20" t="n">
-        <v>2102.243979692144</v>
+        <v>1748.794715679943</v>
       </c>
       <c r="V20" t="n">
-        <v>1752.406425028625</v>
+        <v>1561.446655439822</v>
       </c>
       <c r="W20" t="n">
-        <v>1752.406425028625</v>
+        <v>1561.446655439822</v>
       </c>
       <c r="X20" t="n">
-        <v>1351.763027197578</v>
+        <v>1561.446655439822</v>
       </c>
       <c r="Y20" t="n">
-        <v>950.8263541456678</v>
+        <v>1561.446655439822</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>46.34010707213374</v>
       </c>
       <c r="I21" t="n">
-        <v>46.34010707213374</v>
+        <v>56.71175580930699</v>
       </c>
       <c r="J21" t="n">
-        <v>79.7478573176265</v>
+        <v>333.787910029433</v>
       </c>
       <c r="K21" t="n">
-        <v>301.2543200924451</v>
+        <v>820.0438504772105</v>
       </c>
       <c r="L21" t="n">
-        <v>874.7131451101002</v>
+        <v>958.142321912788</v>
       </c>
       <c r="M21" t="n">
-        <v>1448.171970127755</v>
+        <v>1127.136256003786</v>
       </c>
       <c r="N21" t="n">
-        <v>1627.474171987875</v>
+        <v>1306.438457863906</v>
       </c>
       <c r="O21" t="n">
-        <v>1782.501640105947</v>
+        <v>1461.465925981979</v>
       </c>
       <c r="P21" t="n">
-        <v>1899.09495890519</v>
+        <v>1578.059244781221</v>
       </c>
       <c r="Q21" t="n">
-        <v>1956.817230278806</v>
+        <v>2041.751673158611</v>
       </c>
       <c r="R21" t="n">
         <v>2041.751673158611</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.4501234614029</v>
+        <v>608.1099653542803</v>
       </c>
       <c r="C22" t="n">
-        <v>630.3567510231194</v>
+        <v>608.1099653542803</v>
       </c>
       <c r="D22" t="n">
-        <v>470.8621063460294</v>
+        <v>608.1099653542803</v>
       </c>
       <c r="E22" t="n">
-        <v>470.8621063460294</v>
+        <v>447.1991502225999</v>
       </c>
       <c r="F22" t="n">
-        <v>306.2309804566207</v>
+        <v>282.5680243331911</v>
       </c>
       <c r="G22" t="n">
-        <v>139.7434951733931</v>
+        <v>282.5680243331911</v>
       </c>
       <c r="H22" t="n">
         <v>139.7434951733931</v>
@@ -5910,13 +5910,13 @@
         <v>46.34010707213374</v>
       </c>
       <c r="J22" t="n">
-        <v>113.2867408723821</v>
+        <v>113.286740872382</v>
       </c>
       <c r="K22" t="n">
-        <v>354.7109984607102</v>
+        <v>354.7109984607099</v>
       </c>
       <c r="L22" t="n">
-        <v>725.7742600107268</v>
+        <v>725.7742600107265</v>
       </c>
       <c r="M22" t="n">
         <v>1132.247446864443</v>
@@ -5934,28 +5934,28 @@
         <v>2317.005353606687</v>
       </c>
       <c r="R22" t="n">
-        <v>2317.005353606687</v>
+        <v>2266.035653858621</v>
       </c>
       <c r="S22" t="n">
-        <v>2317.005353606687</v>
+        <v>2092.939253027495</v>
       </c>
       <c r="T22" t="n">
-        <v>2080.716302964095</v>
+        <v>1856.650202384903</v>
       </c>
       <c r="U22" t="n">
-        <v>1797.959768553377</v>
+        <v>1573.893667974185</v>
       </c>
       <c r="V22" t="n">
-        <v>1524.074023492899</v>
+        <v>1537.958896991002</v>
       </c>
       <c r="W22" t="n">
-        <v>1264.529684212955</v>
+        <v>1258.889232499877</v>
       </c>
       <c r="X22" t="n">
-        <v>1026.185822072638</v>
+        <v>1020.54537035956</v>
       </c>
       <c r="Y22" t="n">
-        <v>801.4501234614029</v>
+        <v>795.8096717483247</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2443.157390041372</v>
+        <v>2463.940310093042</v>
       </c>
       <c r="C23" t="n">
-        <v>2033.032799354642</v>
+        <v>2053.815719406312</v>
       </c>
       <c r="D23" t="n">
-        <v>1628.568869447703</v>
+        <v>1649.351789499372</v>
       </c>
       <c r="E23" t="n">
-        <v>1214.228653964599</v>
+        <v>1235.011574016269</v>
       </c>
       <c r="F23" t="n">
-        <v>793.1982419182867</v>
+        <v>813.9811619699568</v>
       </c>
       <c r="G23" t="n">
-        <v>386.170725404174</v>
+        <v>406.9536454558441</v>
       </c>
       <c r="H23" t="n">
-        <v>92.68021414426748</v>
+        <v>113.4631341959376</v>
       </c>
       <c r="I23" t="n">
         <v>92.68021414426748</v>
       </c>
       <c r="J23" t="n">
-        <v>161.5678068076817</v>
+        <v>488.3436336954109</v>
       </c>
       <c r="K23" t="n">
-        <v>358.1094299008839</v>
+        <v>1238.541904606803</v>
       </c>
       <c r="L23" t="n">
-        <v>1333.753673403538</v>
+        <v>2214.186148109457</v>
       </c>
       <c r="M23" t="n">
-        <v>2402.769237857609</v>
+        <v>2824.66244883809</v>
       </c>
       <c r="N23" t="n">
-        <v>3453.38337099443</v>
+        <v>3030.11239748724</v>
       </c>
       <c r="O23" t="n">
-        <v>4377.87188511059</v>
+        <v>3218.712177316769</v>
       </c>
       <c r="P23" t="n">
-        <v>4524.864528437097</v>
+        <v>3987.574388210503</v>
       </c>
       <c r="Q23" t="n">
-        <v>4615.739919544816</v>
+        <v>4488.744252468675</v>
       </c>
       <c r="R23" t="n">
         <v>4634.010707213374</v>
       </c>
       <c r="S23" t="n">
-        <v>4537.485873534218</v>
+        <v>4634.010707213374</v>
       </c>
       <c r="T23" t="n">
-        <v>4322.724499619675</v>
+        <v>4634.010707213374</v>
       </c>
       <c r="U23" t="n">
-        <v>4065.800069286629</v>
+        <v>4409.339416168839</v>
       </c>
       <c r="V23" t="n">
-        <v>3715.96251462311</v>
+        <v>4059.50186150532</v>
       </c>
       <c r="W23" t="n">
-        <v>3332.202213758279</v>
+        <v>3675.741560640488</v>
       </c>
       <c r="X23" t="n">
-        <v>2931.558815927231</v>
+        <v>3275.098162809441</v>
       </c>
       <c r="Y23" t="n">
-        <v>2853.378569705861</v>
+        <v>2874.161489757531</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>92.68021414426748</v>
       </c>
       <c r="I24" t="n">
-        <v>92.68021414426748</v>
+        <v>103.0518628814407</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0879643897602</v>
+        <v>181.6238631561596</v>
       </c>
       <c r="K24" t="n">
-        <v>214.8398346810719</v>
+        <v>781.4495146695392</v>
       </c>
       <c r="L24" t="n">
-        <v>352.9383061166494</v>
+        <v>919.5479861051167</v>
       </c>
       <c r="M24" t="n">
-        <v>521.9322402076479</v>
+        <v>1088.541920196115</v>
       </c>
       <c r="N24" t="n">
-        <v>997.6176671839193</v>
+        <v>1267.844122056235</v>
       </c>
       <c r="O24" t="n">
-        <v>1913.776190057886</v>
+        <v>1422.871590174307</v>
       </c>
       <c r="P24" t="n">
-        <v>2030.369508857128</v>
+        <v>1539.46490897355</v>
       </c>
       <c r="Q24" t="n">
-        <v>2088.091780230744</v>
+        <v>2003.15733735094</v>
       </c>
       <c r="R24" t="n">
         <v>2088.091780230744</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3091.072210186932</v>
+        <v>660.0267425779612</v>
       </c>
       <c r="C25" t="n">
-        <v>2919.978837748649</v>
+        <v>660.0267425779612</v>
       </c>
       <c r="D25" t="n">
-        <v>2760.484193071559</v>
+        <v>660.0267425779612</v>
       </c>
       <c r="E25" t="n">
-        <v>2599.573377939878</v>
+        <v>660.0267425779612</v>
       </c>
       <c r="F25" t="n">
-        <v>2599.573377939878</v>
+        <v>495.3956166885524</v>
       </c>
       <c r="G25" t="n">
-        <v>2599.573377939878</v>
+        <v>328.9081314053249</v>
       </c>
       <c r="H25" t="n">
-        <v>2456.74884878008</v>
+        <v>186.0836022455268</v>
       </c>
       <c r="I25" t="n">
+        <v>92.68021414426748</v>
+      </c>
+      <c r="J25" t="n">
+        <v>159.6268479445158</v>
+      </c>
+      <c r="K25" t="n">
+        <v>401.0511055328438</v>
+      </c>
+      <c r="L25" t="n">
+        <v>772.1143670828604</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1178.587553936577</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1573.848495598112</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1939.096489771062</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2235.205744961087</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2363.345460678821</v>
       </c>
-      <c r="J25" t="n">
-        <v>2430.292094479069</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2671.716352067398</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3042.779613617414</v>
-      </c>
-      <c r="M25" t="n">
-        <v>3449.252800471131</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3844.513742132665</v>
-      </c>
-      <c r="O25" t="n">
-        <v>4209.761736305616</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4505.87099149564</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>4634.010707213374</v>
-      </c>
       <c r="R25" t="n">
-        <v>4634.010707213374</v>
+        <v>2312.375760930754</v>
       </c>
       <c r="S25" t="n">
-        <v>4634.010707213374</v>
+        <v>2139.279360099629</v>
       </c>
       <c r="T25" t="n">
-        <v>4397.721656570782</v>
+        <v>1902.990309457037</v>
       </c>
       <c r="U25" t="n">
-        <v>4114.965122160064</v>
+        <v>1620.233775046319</v>
       </c>
       <c r="V25" t="n">
-        <v>3841.079377099586</v>
+        <v>1346.348029985841</v>
       </c>
       <c r="W25" t="n">
-        <v>3562.00971260846</v>
+        <v>1067.278365494715</v>
       </c>
       <c r="X25" t="n">
-        <v>3323.665850468144</v>
+        <v>828.9345033543984</v>
       </c>
       <c r="Y25" t="n">
-        <v>3098.930151856908</v>
+        <v>660.0267425779612</v>
       </c>
     </row>
     <row r="26">
@@ -6229,40 +6229,40 @@
         <v>160.8360924511665</v>
       </c>
       <c r="K26" t="n">
-        <v>284.629836477034</v>
+        <v>321.5237120751217</v>
       </c>
       <c r="L26" t="n">
-        <v>453.1521360852335</v>
+        <v>1297.167955577776</v>
       </c>
       <c r="M26" t="n">
-        <v>1522.167700539305</v>
+        <v>2366.183520031847</v>
       </c>
       <c r="N26" t="n">
-        <v>2572.781833676126</v>
+        <v>3416.797653168668</v>
       </c>
       <c r="O26" t="n">
-        <v>3497.270347792285</v>
+        <v>4341.286167284828</v>
       </c>
       <c r="P26" t="n">
-        <v>4266.132558686018</v>
+        <v>4488.278810611335</v>
       </c>
       <c r="Q26" t="n">
-        <v>4452.158534642913</v>
+        <v>4579.154201719054</v>
       </c>
       <c r="R26" t="n">
         <v>4597.424989387612</v>
       </c>
       <c r="S26" t="n">
-        <v>4597.424989387612</v>
+        <v>4500.900155708456</v>
       </c>
       <c r="T26" t="n">
-        <v>4382.66361547307</v>
+        <v>4500.900155708456</v>
       </c>
       <c r="U26" t="n">
-        <v>4125.739185140024</v>
+        <v>4408.607701812324</v>
       </c>
       <c r="V26" t="n">
-        <v>3775.901630476505</v>
+        <v>4058.770147148805</v>
       </c>
       <c r="W26" t="n">
         <v>3675.009846283973</v>
@@ -6302,31 +6302,31 @@
         <v>91.94849978775224</v>
       </c>
       <c r="I27" t="n">
-        <v>91.94849978775224</v>
+        <v>102.3201485249255</v>
       </c>
       <c r="J27" t="n">
-        <v>125.356250033245</v>
+        <v>379.3963027450515</v>
       </c>
       <c r="K27" t="n">
-        <v>725.1819015466247</v>
+        <v>468.1481730363631</v>
       </c>
       <c r="L27" t="n">
-        <v>863.2803729822022</v>
+        <v>606.2466444719406</v>
       </c>
       <c r="M27" t="n">
-        <v>1032.274307073201</v>
+        <v>775.2405785629392</v>
       </c>
       <c r="N27" t="n">
-        <v>1758.017007583298</v>
+        <v>954.5427804230591</v>
       </c>
       <c r="O27" t="n">
-        <v>1913.044475701371</v>
+        <v>1109.570248541132</v>
       </c>
       <c r="P27" t="n">
-        <v>2029.637794500613</v>
+        <v>1841.58649848168</v>
       </c>
       <c r="Q27" t="n">
-        <v>2087.360065874229</v>
+        <v>2002.425622994424</v>
       </c>
       <c r="R27" t="n">
         <v>2087.360065874229</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1150.7938604685</v>
+        <v>466.7370837406701</v>
       </c>
       <c r="C28" t="n">
-        <v>979.7004880302165</v>
+        <v>295.6437113023866</v>
       </c>
       <c r="D28" t="n">
-        <v>820.2058433531265</v>
+        <v>295.6437113023866</v>
       </c>
       <c r="E28" t="n">
-        <v>659.2950282214459</v>
+        <v>258.4359850709798</v>
       </c>
       <c r="F28" t="n">
-        <v>494.6639023320372</v>
+        <v>258.4359850709798</v>
       </c>
       <c r="G28" t="n">
-        <v>328.1764170488096</v>
+        <v>91.94849978775224</v>
       </c>
       <c r="H28" t="n">
-        <v>185.3518878890116</v>
+        <v>91.94849978775224</v>
       </c>
       <c r="I28" t="n">
         <v>91.94849978775224</v>
@@ -6408,28 +6408,28 @@
         <v>2362.613746322306</v>
       </c>
       <c r="R28" t="n">
-        <v>2311.644046574239</v>
+        <v>2362.613746322306</v>
       </c>
       <c r="S28" t="n">
-        <v>2138.547645743114</v>
+        <v>2189.51734549118</v>
       </c>
       <c r="T28" t="n">
-        <v>2138.547645743114</v>
+        <v>1953.228294848588</v>
       </c>
       <c r="U28" t="n">
-        <v>1891.448976414148</v>
+        <v>1670.47176043787</v>
       </c>
       <c r="V28" t="n">
-        <v>1617.56323135367</v>
+        <v>1396.586015377392</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.493566862544</v>
+        <v>1117.516350886266</v>
       </c>
       <c r="X28" t="n">
-        <v>1338.493566862544</v>
+        <v>879.1724887459497</v>
       </c>
       <c r="Y28" t="n">
-        <v>1338.493566862544</v>
+        <v>654.4367901347144</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2083.81524538507</v>
+        <v>2463.208595736527</v>
       </c>
       <c r="C29" t="n">
-        <v>1673.69065469834</v>
+        <v>2053.084005049797</v>
       </c>
       <c r="D29" t="n">
-        <v>1269.226724791401</v>
+        <v>1648.620075142857</v>
       </c>
       <c r="E29" t="n">
-        <v>854.8865093082973</v>
+        <v>1234.279859659754</v>
       </c>
       <c r="F29" t="n">
-        <v>433.8560972619848</v>
+        <v>813.2494476134416</v>
       </c>
       <c r="G29" t="n">
         <v>406.2219310993289</v>
@@ -6463,25 +6463,25 @@
         <v>91.94849978775224</v>
       </c>
       <c r="J29" t="n">
-        <v>313.0056872918176</v>
+        <v>487.6119193388956</v>
       </c>
       <c r="K29" t="n">
-        <v>1063.20395820321</v>
+        <v>611.4056633647631</v>
       </c>
       <c r="L29" t="n">
-        <v>2038.848201705863</v>
+        <v>1587.049906867417</v>
       </c>
       <c r="M29" t="n">
-        <v>2239.187852955706</v>
+        <v>2656.065471321489</v>
       </c>
       <c r="N29" t="n">
-        <v>3289.801986092527</v>
+        <v>3615.396247228705</v>
       </c>
       <c r="O29" t="n">
-        <v>4214.290500208686</v>
+        <v>3803.996027058234</v>
       </c>
       <c r="P29" t="n">
-        <v>4361.283143535194</v>
+        <v>3950.988670384741</v>
       </c>
       <c r="Q29" t="n">
         <v>4452.158534642913</v>
@@ -6493,22 +6493,22 @@
         <v>4500.900155708456</v>
       </c>
       <c r="T29" t="n">
-        <v>4286.138781793913</v>
+        <v>4500.900155708456</v>
       </c>
       <c r="U29" t="n">
-        <v>4029.214351460867</v>
+        <v>4408.607701812324</v>
       </c>
       <c r="V29" t="n">
-        <v>3679.376796797348</v>
+        <v>4058.770147148805</v>
       </c>
       <c r="W29" t="n">
-        <v>3295.616495932517</v>
+        <v>3675.009846283973</v>
       </c>
       <c r="X29" t="n">
-        <v>2894.973098101469</v>
+        <v>3274.366448452926</v>
       </c>
       <c r="Y29" t="n">
-        <v>2494.036425049559</v>
+        <v>2873.429775401016</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>91.94849978775224</v>
       </c>
       <c r="I30" t="n">
-        <v>91.94849978775224</v>
+        <v>102.3201485249255</v>
       </c>
       <c r="J30" t="n">
-        <v>125.356250033245</v>
+        <v>379.3963027450515</v>
       </c>
       <c r="K30" t="n">
-        <v>214.1081203245567</v>
+        <v>780.7178003130241</v>
       </c>
       <c r="L30" t="n">
-        <v>352.2065917601341</v>
+        <v>918.8162717486016</v>
       </c>
       <c r="M30" t="n">
-        <v>557.3217175780992</v>
+        <v>1087.8102058396</v>
       </c>
       <c r="N30" t="n">
-        <v>736.623919438219</v>
+        <v>1267.11240769972</v>
       </c>
       <c r="O30" t="n">
-        <v>891.6513875562914</v>
+        <v>1422.139875817792</v>
       </c>
       <c r="P30" t="n">
-        <v>1623.667637496839</v>
+        <v>1538.733194617035</v>
       </c>
       <c r="Q30" t="n">
-        <v>2087.360065874229</v>
+        <v>2002.425622994424</v>
       </c>
       <c r="R30" t="n">
         <v>2087.360065874229</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>933.1809106240457</v>
+        <v>654.4367901347144</v>
       </c>
       <c r="C31" t="n">
-        <v>933.1809106240457</v>
+        <v>483.3434176964309</v>
       </c>
       <c r="D31" t="n">
-        <v>820.2058433531265</v>
+        <v>351.8393731722392</v>
       </c>
       <c r="E31" t="n">
-        <v>659.2950282214459</v>
+        <v>351.8393731722392</v>
       </c>
       <c r="F31" t="n">
-        <v>494.6639023320372</v>
+        <v>351.8393731722392</v>
       </c>
       <c r="G31" t="n">
-        <v>328.1764170488096</v>
+        <v>185.3518878890116</v>
       </c>
       <c r="H31" t="n">
         <v>185.3518878890116</v>
@@ -6645,28 +6645,28 @@
         <v>2362.613746322306</v>
       </c>
       <c r="R31" t="n">
-        <v>2311.644046574239</v>
+        <v>2362.613746322306</v>
       </c>
       <c r="S31" t="n">
-        <v>2138.547645743114</v>
+        <v>2189.51734549118</v>
       </c>
       <c r="T31" t="n">
-        <v>1902.258595100521</v>
+        <v>1953.228294848588</v>
       </c>
       <c r="U31" t="n">
-        <v>1619.502060689804</v>
+        <v>1670.47176043787</v>
       </c>
       <c r="V31" t="n">
-        <v>1345.616315629326</v>
+        <v>1396.586015377392</v>
       </c>
       <c r="W31" t="n">
-        <v>1345.616315629326</v>
+        <v>1117.516350886266</v>
       </c>
       <c r="X31" t="n">
-        <v>1345.616315629326</v>
+        <v>879.1724887459497</v>
       </c>
       <c r="Y31" t="n">
-        <v>1120.88061701809</v>
+        <v>654.4367901347144</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2463.208595736527</v>
+        <v>2083.81524538507</v>
       </c>
       <c r="C32" t="n">
-        <v>2053.084005049797</v>
+        <v>1673.69065469834</v>
       </c>
       <c r="D32" t="n">
-        <v>1648.620075142857</v>
+        <v>1269.226724791401</v>
       </c>
       <c r="E32" t="n">
-        <v>1234.279859659754</v>
+        <v>854.8865093082973</v>
       </c>
       <c r="F32" t="n">
         <v>813.2494476134416</v>
@@ -6700,28 +6700,28 @@
         <v>91.94849978775224</v>
       </c>
       <c r="J32" t="n">
-        <v>160.8360924511665</v>
+        <v>487.6119193388956</v>
       </c>
       <c r="K32" t="n">
-        <v>284.629836477034</v>
+        <v>1237.810190250288</v>
       </c>
       <c r="L32" t="n">
-        <v>1260.274079979688</v>
+        <v>1851.848345475855</v>
       </c>
       <c r="M32" t="n">
-        <v>2329.289644433759</v>
+        <v>2052.187996725698</v>
       </c>
       <c r="N32" t="n">
-        <v>3379.90377757058</v>
+        <v>2257.637945374848</v>
       </c>
       <c r="O32" t="n">
-        <v>4304.39229168674</v>
+        <v>3182.126459491007</v>
       </c>
       <c r="P32" t="n">
-        <v>4451.384935013247</v>
+        <v>3950.988670384741</v>
       </c>
       <c r="Q32" t="n">
-        <v>4579.154201719054</v>
+        <v>4452.158534642913</v>
       </c>
       <c r="R32" t="n">
         <v>4597.424989387612</v>
@@ -6742,10 +6742,10 @@
         <v>3295.616495932517</v>
       </c>
       <c r="X32" t="n">
-        <v>3274.366448452926</v>
+        <v>2894.973098101469</v>
       </c>
       <c r="Y32" t="n">
-        <v>2873.429775401016</v>
+        <v>2494.036425049559</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>91.94849978775224</v>
       </c>
       <c r="I33" t="n">
-        <v>91.94849978775224</v>
+        <v>102.3201485249255</v>
       </c>
       <c r="J33" t="n">
-        <v>125.356250033245</v>
+        <v>180.8921487996445</v>
       </c>
       <c r="K33" t="n">
-        <v>214.1081203245567</v>
+        <v>780.7178003130241</v>
       </c>
       <c r="L33" t="n">
-        <v>352.2065917601341</v>
+        <v>918.8162717486016</v>
       </c>
       <c r="M33" t="n">
-        <v>521.2005258511326</v>
+        <v>1087.8102058396</v>
       </c>
       <c r="N33" t="n">
-        <v>996.8859528274041</v>
+        <v>1267.11240769972</v>
       </c>
       <c r="O33" t="n">
-        <v>1913.044475701371</v>
+        <v>1422.139875817792</v>
       </c>
       <c r="P33" t="n">
-        <v>2029.637794500613</v>
+        <v>1538.733194617035</v>
       </c>
       <c r="Q33" t="n">
-        <v>2087.360065874229</v>
+        <v>2002.425622994424</v>
       </c>
       <c r="R33" t="n">
         <v>2087.360065874229</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>876.7921332464311</v>
+        <v>466.7370837406701</v>
       </c>
       <c r="C34" t="n">
-        <v>705.6987608081477</v>
+        <v>295.6437113023866</v>
       </c>
       <c r="D34" t="n">
-        <v>562.1713293624584</v>
+        <v>295.6437113023866</v>
       </c>
       <c r="E34" t="n">
-        <v>401.2605142307779</v>
+        <v>134.7328961707061</v>
       </c>
       <c r="F34" t="n">
-        <v>401.2605142307779</v>
+        <v>134.7328961707061</v>
       </c>
       <c r="G34" t="n">
-        <v>234.7730289475503</v>
+        <v>91.94849978775224</v>
       </c>
       <c r="H34" t="n">
         <v>91.94849978775224</v>
@@ -6882,28 +6882,28 @@
         <v>2362.613746322306</v>
       </c>
       <c r="R34" t="n">
-        <v>2311.644046574239</v>
+        <v>2362.613746322306</v>
       </c>
       <c r="S34" t="n">
-        <v>2138.547645743114</v>
+        <v>2189.51734549118</v>
       </c>
       <c r="T34" t="n">
-        <v>2138.547645743114</v>
+        <v>1953.228294848588</v>
       </c>
       <c r="U34" t="n">
-        <v>1855.791111332396</v>
+        <v>1670.47176043787</v>
       </c>
       <c r="V34" t="n">
-        <v>1581.905366271918</v>
+        <v>1396.586015377392</v>
       </c>
       <c r="W34" t="n">
-        <v>1302.835701780792</v>
+        <v>1117.516350886266</v>
       </c>
       <c r="X34" t="n">
-        <v>1064.491839640476</v>
+        <v>879.1724887459497</v>
       </c>
       <c r="Y34" t="n">
-        <v>1064.491839640476</v>
+        <v>654.4367901347144</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1305.305546370959</v>
+        <v>1845.319549359099</v>
       </c>
       <c r="C35" t="n">
-        <v>895.180955684229</v>
+        <v>1845.319549359099</v>
       </c>
       <c r="D35" t="n">
-        <v>895.180955684229</v>
+        <v>1603.011682427239</v>
       </c>
       <c r="E35" t="n">
-        <v>895.180955684229</v>
+        <v>1188.671466944136</v>
       </c>
       <c r="F35" t="n">
-        <v>474.1505436379166</v>
+        <v>767.6410548978231</v>
       </c>
       <c r="G35" t="n">
-        <v>67.12302712380387</v>
+        <v>360.6135383837104</v>
       </c>
       <c r="H35" t="n">
         <v>67.12302712380387</v>
@@ -6940,10 +6940,10 @@
         <v>442.0035266232771</v>
       </c>
       <c r="K35" t="n">
-        <v>760.6647119405885</v>
+        <v>565.7972706491446</v>
       </c>
       <c r="L35" t="n">
-        <v>929.187011548788</v>
+        <v>734.319570257344</v>
       </c>
       <c r="M35" t="n">
         <v>1129.526662798631</v>
@@ -6964,25 +6964,25 @@
         <v>2317.005353606687</v>
       </c>
       <c r="S35" t="n">
-        <v>2220.480519927531</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="T35" t="n">
-        <v>2220.480519927531</v>
+        <v>2102.243979692144</v>
       </c>
       <c r="U35" t="n">
-        <v>1963.556089594485</v>
+        <v>1845.319549359099</v>
       </c>
       <c r="V35" t="n">
-        <v>1715.526726035448</v>
+        <v>1845.319549359099</v>
       </c>
       <c r="W35" t="n">
-        <v>1715.526726035448</v>
+        <v>1845.319549359099</v>
       </c>
       <c r="X35" t="n">
-        <v>1715.526726035448</v>
+        <v>1845.319549359099</v>
       </c>
       <c r="Y35" t="n">
-        <v>1715.526726035448</v>
+        <v>1845.319549359099</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>46.34010707213374</v>
       </c>
       <c r="I36" t="n">
-        <v>46.34010707213374</v>
+        <v>56.71175580930699</v>
       </c>
       <c r="J36" t="n">
-        <v>323.4162612922597</v>
+        <v>90.11950605479976</v>
       </c>
       <c r="K36" t="n">
-        <v>790.6536538989067</v>
+        <v>178.8713763461114</v>
       </c>
       <c r="L36" t="n">
-        <v>1364.112478916562</v>
+        <v>316.9698477816889</v>
       </c>
       <c r="M36" t="n">
-        <v>1533.10641300756</v>
+        <v>648.0451899664463</v>
       </c>
       <c r="N36" t="n">
-        <v>1712.40861486768</v>
+        <v>1221.504014984101</v>
       </c>
       <c r="O36" t="n">
-        <v>1867.436082985752</v>
+        <v>1376.531483102174</v>
       </c>
       <c r="P36" t="n">
-        <v>1984.029401784995</v>
+        <v>1493.124801901416</v>
       </c>
       <c r="Q36" t="n">
-        <v>2041.751673158611</v>
+        <v>1956.817230278806</v>
       </c>
       <c r="R36" t="n">
         <v>2041.751673158611</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1099.897671579306</v>
+        <v>931.9851901788284</v>
       </c>
       <c r="C37" t="n">
-        <v>934.0920953145981</v>
+        <v>760.8918177405449</v>
       </c>
       <c r="D37" t="n">
-        <v>774.597450637508</v>
+        <v>760.8918177405449</v>
       </c>
       <c r="E37" t="n">
-        <v>613.6866355058274</v>
+        <v>599.9810026088644</v>
       </c>
       <c r="F37" t="n">
-        <v>449.0555096164187</v>
+        <v>435.3498767194557</v>
       </c>
       <c r="G37" t="n">
-        <v>282.5680243331911</v>
+        <v>268.8623914362281</v>
       </c>
       <c r="H37" t="n">
         <v>139.7434951733931</v>
@@ -7095,13 +7095,13 @@
         <v>46.34010707213374</v>
       </c>
       <c r="J37" t="n">
-        <v>113.286740872382</v>
+        <v>113.2867408723818</v>
       </c>
       <c r="K37" t="n">
-        <v>354.7109984607101</v>
+        <v>354.7109984607099</v>
       </c>
       <c r="L37" t="n">
-        <v>725.7742600107267</v>
+        <v>725.7742600107265</v>
       </c>
       <c r="M37" t="n">
         <v>1132.247446864443</v>
@@ -7122,25 +7122,25 @@
         <v>2266.035653858621</v>
       </c>
       <c r="S37" t="n">
-        <v>2266.035653858621</v>
+        <v>2092.939253027495</v>
       </c>
       <c r="T37" t="n">
-        <v>2029.746603216028</v>
+        <v>1856.650202384903</v>
       </c>
       <c r="U37" t="n">
-        <v>2029.746603216028</v>
+        <v>1856.650202384903</v>
       </c>
       <c r="V37" t="n">
-        <v>2029.746603216028</v>
+        <v>1582.764457324425</v>
       </c>
       <c r="W37" t="n">
-        <v>1750.676938724903</v>
+        <v>1582.764457324425</v>
       </c>
       <c r="X37" t="n">
-        <v>1512.333076584586</v>
+        <v>1344.420595184108</v>
       </c>
       <c r="Y37" t="n">
-        <v>1287.597377973351</v>
+        <v>1119.684896572873</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1906.784173942198</v>
+        <v>1309.521171167332</v>
       </c>
       <c r="C38" t="n">
-        <v>1496.659583255468</v>
+        <v>1309.521171167332</v>
       </c>
       <c r="D38" t="n">
-        <v>1288.738251115662</v>
+        <v>1309.521171167332</v>
       </c>
       <c r="E38" t="n">
-        <v>874.398035632559</v>
+        <v>895.180955684229</v>
       </c>
       <c r="F38" t="n">
-        <v>453.3676235862465</v>
+        <v>474.1505436379166</v>
       </c>
       <c r="G38" t="n">
-        <v>46.34010707213374</v>
+        <v>67.12302712380387</v>
       </c>
       <c r="H38" t="n">
-        <v>46.34010707213374</v>
+        <v>67.12302712380387</v>
       </c>
       <c r="I38" t="n">
         <v>46.34010707213374</v>
       </c>
       <c r="J38" t="n">
-        <v>115.227699735548</v>
+        <v>442.0035266232771</v>
       </c>
       <c r="K38" t="n">
-        <v>688.686524753203</v>
+        <v>565.7972706491446</v>
       </c>
       <c r="L38" t="n">
-        <v>1262.145349770858</v>
+        <v>734.319570257344</v>
       </c>
       <c r="M38" t="n">
-        <v>1666.816803025225</v>
+        <v>934.6592215071869</v>
       </c>
       <c r="N38" t="n">
-        <v>1872.266751674374</v>
+        <v>1140.109170156336</v>
       </c>
       <c r="O38" t="n">
-        <v>2060.866531503903</v>
+        <v>1328.708949985866</v>
       </c>
       <c r="P38" t="n">
-        <v>2207.85917483041</v>
+        <v>1670.569034603817</v>
       </c>
       <c r="Q38" t="n">
-        <v>2298.734565938129</v>
+        <v>2171.738898861988</v>
       </c>
       <c r="R38" t="n">
         <v>2317.005353606687</v>
       </c>
       <c r="S38" t="n">
-        <v>2317.005353606687</v>
+        <v>2220.480519927531</v>
       </c>
       <c r="T38" t="n">
-        <v>2317.005353606687</v>
+        <v>2220.480519927531</v>
       </c>
       <c r="U38" t="n">
-        <v>2317.005353606687</v>
+        <v>2220.480519927531</v>
       </c>
       <c r="V38" t="n">
-        <v>2317.005353606687</v>
+        <v>2220.480519927531</v>
       </c>
       <c r="W38" t="n">
-        <v>2317.005353606687</v>
+        <v>2120.679023883732</v>
       </c>
       <c r="X38" t="n">
-        <v>2317.005353606687</v>
+        <v>2120.679023883732</v>
       </c>
       <c r="Y38" t="n">
-        <v>2317.005353606687</v>
+        <v>1719.742350831822</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>46.34010707213374</v>
       </c>
       <c r="I39" t="n">
-        <v>46.34010707213374</v>
+        <v>56.71175580930699</v>
       </c>
       <c r="J39" t="n">
-        <v>79.7478573176265</v>
+        <v>333.787910029433</v>
       </c>
       <c r="K39" t="n">
-        <v>168.4997276089381</v>
+        <v>735.1094075974056</v>
       </c>
       <c r="L39" t="n">
-        <v>741.9585526265932</v>
+        <v>873.2078790329831</v>
       </c>
       <c r="M39" t="n">
-        <v>1315.417377644248</v>
+        <v>1042.201813123982</v>
       </c>
       <c r="N39" t="n">
-        <v>1494.719579504368</v>
+        <v>1221.504014984101</v>
       </c>
       <c r="O39" t="n">
-        <v>1867.436082985752</v>
+        <v>1376.531483102174</v>
       </c>
       <c r="P39" t="n">
-        <v>1984.029401784995</v>
+        <v>1493.124801901416</v>
       </c>
       <c r="Q39" t="n">
-        <v>2041.751673158611</v>
+        <v>1956.817230278806</v>
       </c>
       <c r="R39" t="n">
         <v>2041.751673158611</v>
@@ -7311,22 +7311,22 @@
         <v>594.2250918561773</v>
       </c>
       <c r="C40" t="n">
-        <v>460.1489549821636</v>
+        <v>594.2250918561773</v>
       </c>
       <c r="D40" t="n">
-        <v>300.6543103050736</v>
+        <v>594.2250918561773</v>
       </c>
       <c r="E40" t="n">
-        <v>139.7434951733931</v>
+        <v>433.3142767244968</v>
       </c>
       <c r="F40" t="n">
-        <v>139.7434951733931</v>
+        <v>268.683150835088</v>
       </c>
       <c r="G40" t="n">
-        <v>139.7434951733931</v>
+        <v>268.683150835088</v>
       </c>
       <c r="H40" t="n">
-        <v>139.7434951733931</v>
+        <v>125.85862167529</v>
       </c>
       <c r="I40" t="n">
         <v>46.34010707213374</v>
@@ -7335,7 +7335,7 @@
         <v>113.2867408723821</v>
       </c>
       <c r="K40" t="n">
-        <v>354.7109984607101</v>
+        <v>354.7109984607102</v>
       </c>
       <c r="L40" t="n">
         <v>725.7742600107267</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1105.20410305924</v>
+        <v>1338.573536015454</v>
       </c>
       <c r="C41" t="n">
-        <v>1105.20410305924</v>
+        <v>1338.573536015454</v>
       </c>
       <c r="D41" t="n">
-        <v>700.7401731523007</v>
+        <v>1338.573536015454</v>
       </c>
       <c r="E41" t="n">
-        <v>286.3999576691974</v>
+        <v>1188.671466944136</v>
       </c>
       <c r="F41" t="n">
-        <v>286.3999576691974</v>
+        <v>767.6410548978231</v>
       </c>
       <c r="G41" t="n">
-        <v>286.3999576691974</v>
+        <v>360.6135383837104</v>
       </c>
       <c r="H41" t="n">
-        <v>46.34010707213374</v>
+        <v>67.12302712380387</v>
       </c>
       <c r="I41" t="n">
         <v>46.34010707213374</v>
       </c>
       <c r="J41" t="n">
-        <v>269.1097418879058</v>
+        <v>442.0035266232771</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9034859137732</v>
+        <v>565.7972706491446</v>
       </c>
       <c r="L41" t="n">
-        <v>966.3623109314283</v>
+        <v>734.319570257344</v>
       </c>
       <c r="M41" t="n">
-        <v>1539.821135949083</v>
+        <v>934.6592215071869</v>
       </c>
       <c r="N41" t="n">
-        <v>1745.271084598233</v>
+        <v>1140.109170156336</v>
       </c>
       <c r="O41" t="n">
-        <v>1933.870864427762</v>
+        <v>1328.708949985866</v>
       </c>
       <c r="P41" t="n">
-        <v>2080.863507754269</v>
+        <v>1797.564701679958</v>
       </c>
       <c r="Q41" t="n">
-        <v>2171.738898861988</v>
+        <v>2298.734565938129</v>
       </c>
       <c r="R41" t="n">
         <v>2317.005353606687</v>
       </c>
       <c r="S41" t="n">
-        <v>2317.005353606687</v>
+        <v>2220.480519927531</v>
       </c>
       <c r="T41" t="n">
-        <v>2317.005353606687</v>
+        <v>2005.719146012989</v>
       </c>
       <c r="U41" t="n">
-        <v>2317.005353606687</v>
+        <v>1748.794715679943</v>
       </c>
       <c r="V41" t="n">
-        <v>2317.005353606687</v>
+        <v>1748.794715679943</v>
       </c>
       <c r="W41" t="n">
-        <v>2317.005353606687</v>
+        <v>1748.794715679943</v>
       </c>
       <c r="X41" t="n">
-        <v>1916.36195577564</v>
+        <v>1748.794715679943</v>
       </c>
       <c r="Y41" t="n">
-        <v>1515.42528272373</v>
+        <v>1748.794715679943</v>
       </c>
     </row>
     <row r="42">
@@ -7499,19 +7499,19 @@
         <v>550.2666030191489</v>
       </c>
       <c r="M42" t="n">
-        <v>719.2605371101473</v>
+        <v>719.2605371101474</v>
       </c>
       <c r="N42" t="n">
-        <v>1292.719362127802</v>
+        <v>898.5627389702673</v>
       </c>
       <c r="O42" t="n">
-        <v>1866.178187145458</v>
+        <v>1053.59020708834</v>
       </c>
       <c r="P42" t="n">
-        <v>1982.7715059447</v>
+        <v>1627.049032105995</v>
       </c>
       <c r="Q42" t="n">
-        <v>2041.751673158611</v>
+        <v>1956.817230278806</v>
       </c>
       <c r="R42" t="n">
         <v>2041.751673158611</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1105.185467752882</v>
+        <v>833.2385520285368</v>
       </c>
       <c r="C43" t="n">
-        <v>934.0920953145981</v>
+        <v>833.2385520285368</v>
       </c>
       <c r="D43" t="n">
-        <v>774.597450637508</v>
+        <v>673.7439073514468</v>
       </c>
       <c r="E43" t="n">
         <v>613.6866355058274</v>
@@ -7605,16 +7605,16 @@
         <v>1573.893667974185</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.893667974185</v>
+        <v>1300.007922913707</v>
       </c>
       <c r="W43" t="n">
-        <v>1573.893667974185</v>
+        <v>1020.938258422581</v>
       </c>
       <c r="X43" t="n">
-        <v>1335.549805833868</v>
+        <v>1020.938258422581</v>
       </c>
       <c r="Y43" t="n">
-        <v>1110.814107222633</v>
+        <v>1020.938258422581</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1562.619416542575</v>
+        <v>1810.259340263042</v>
       </c>
       <c r="C44" t="n">
-        <v>1152.494825855846</v>
+        <v>1400.134749576312</v>
       </c>
       <c r="D44" t="n">
-        <v>748.0308959489062</v>
+        <v>995.6708196693721</v>
       </c>
       <c r="E44" t="n">
-        <v>339.8306183320402</v>
+        <v>895.180955684229</v>
       </c>
       <c r="F44" t="n">
-        <v>339.8306183320402</v>
+        <v>474.1505436379166</v>
       </c>
       <c r="G44" t="n">
-        <v>339.8306183320402</v>
+        <v>67.12302712380387</v>
       </c>
       <c r="H44" t="n">
-        <v>46.34010707213374</v>
+        <v>67.12302712380387</v>
       </c>
       <c r="I44" t="n">
         <v>46.34010707213374</v>
       </c>
       <c r="J44" t="n">
-        <v>115.227699735548</v>
+        <v>442.0035266232771</v>
       </c>
       <c r="K44" t="n">
-        <v>239.0214437614154</v>
+        <v>565.7972706491446</v>
       </c>
       <c r="L44" t="n">
-        <v>812.4802687790705</v>
+        <v>734.319570257344</v>
       </c>
       <c r="M44" t="n">
-        <v>1385.939093796726</v>
+        <v>934.6592215071869</v>
       </c>
       <c r="N44" t="n">
-        <v>1872.266751674374</v>
+        <v>1140.109170156336</v>
       </c>
       <c r="O44" t="n">
-        <v>2060.866531503903</v>
+        <v>1328.708949985866</v>
       </c>
       <c r="P44" t="n">
-        <v>2207.85917483041</v>
+        <v>1902.167775003521</v>
       </c>
       <c r="Q44" t="n">
-        <v>2298.734565938129</v>
+        <v>2171.738898861988</v>
       </c>
       <c r="R44" t="n">
         <v>2317.005353606687</v>
@@ -7681,19 +7681,19 @@
         <v>2220.480519927531</v>
       </c>
       <c r="U44" t="n">
-        <v>1963.556089594485</v>
+        <v>2220.480519927531</v>
       </c>
       <c r="V44" t="n">
-        <v>1963.556089594485</v>
+        <v>2220.480519927531</v>
       </c>
       <c r="W44" t="n">
-        <v>1963.556089594485</v>
+        <v>2220.480519927531</v>
       </c>
       <c r="X44" t="n">
-        <v>1963.556089594485</v>
+        <v>2220.480519927531</v>
       </c>
       <c r="Y44" t="n">
-        <v>1562.619416542575</v>
+        <v>2220.480519927531</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>333.787910029433</v>
       </c>
       <c r="K45" t="n">
-        <v>422.5397803207446</v>
+        <v>735.1094075974056</v>
       </c>
       <c r="L45" t="n">
-        <v>560.6382517563221</v>
+        <v>873.2078790329831</v>
       </c>
       <c r="M45" t="n">
-        <v>729.6321858473206</v>
+        <v>1042.201813123982</v>
       </c>
       <c r="N45" t="n">
-        <v>908.9343877074405</v>
+        <v>1221.504014984101</v>
       </c>
       <c r="O45" t="n">
-        <v>1461.465925981979</v>
+        <v>1376.531483102174</v>
       </c>
       <c r="P45" t="n">
-        <v>1578.059244781221</v>
+        <v>1493.124801901416</v>
       </c>
       <c r="Q45" t="n">
-        <v>2041.751673158611</v>
+        <v>1956.817230278806</v>
       </c>
       <c r="R45" t="n">
         <v>2041.751673158611</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>779.5444427507028</v>
+        <v>421.1286910250514</v>
       </c>
       <c r="C46" t="n">
-        <v>608.4510703124193</v>
+        <v>250.0353185867679</v>
       </c>
       <c r="D46" t="n">
-        <v>608.4510703124193</v>
+        <v>250.0353185867679</v>
       </c>
       <c r="E46" t="n">
-        <v>608.4510703124193</v>
+        <v>250.0353185867679</v>
       </c>
       <c r="F46" t="n">
-        <v>443.8199444230106</v>
+        <v>212.8275923553613</v>
       </c>
       <c r="G46" t="n">
-        <v>282.5680243331911</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="H46" t="n">
-        <v>139.7434951733931</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="I46" t="n">
         <v>46.34010707213374</v>
       </c>
       <c r="J46" t="n">
-        <v>113.2867408723821</v>
+        <v>113.2867408723818</v>
       </c>
       <c r="K46" t="n">
-        <v>354.7109984607102</v>
+        <v>354.7109984607099</v>
       </c>
       <c r="L46" t="n">
-        <v>725.7742600107268</v>
+        <v>725.7742600107265</v>
       </c>
       <c r="M46" t="n">
         <v>1132.247446864443</v>
@@ -7830,28 +7830,28 @@
         <v>2317.005353606687</v>
       </c>
       <c r="R46" t="n">
-        <v>2266.035653858621</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="S46" t="n">
-        <v>2266.035653858621</v>
+        <v>2143.908952775561</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.035653858621</v>
+        <v>1907.619902132969</v>
       </c>
       <c r="U46" t="n">
-        <v>1983.279119447903</v>
+        <v>1624.863367722251</v>
       </c>
       <c r="V46" t="n">
-        <v>1709.393374387425</v>
+        <v>1350.977622661773</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.323709896299</v>
+        <v>1071.907958170648</v>
       </c>
       <c r="X46" t="n">
-        <v>1191.979847755983</v>
+        <v>833.564096030331</v>
       </c>
       <c r="Y46" t="n">
-        <v>967.2441491447472</v>
+        <v>608.8283974190957</v>
       </c>
     </row>
   </sheetData>
@@ -7981,16 +7981,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>98.28281912965761</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>104.6318275192853</v>
+        <v>104.2622748139746</v>
       </c>
       <c r="M2" t="n">
         <v>102.4366539134859</v>
       </c>
       <c r="N2" t="n">
-        <v>101.6891675077491</v>
+        <v>102.0587202130598</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
@@ -8002,7 +8002,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>96.458572271164</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>60.5156682564405</v>
       </c>
       <c r="K3" t="n">
         <v>64.97221224105589</v>
@@ -8075,7 +8075,7 @@
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>63.40606445924423</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
@@ -8139,25 +8139,25 @@
         <v>60.57957513939591</v>
       </c>
       <c r="K4" t="n">
-        <v>61.39679901550731</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L4" t="n">
-        <v>63.77472335034199</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M4" t="n">
-        <v>56.26494249878004</v>
+        <v>65.04181924990981</v>
       </c>
       <c r="N4" t="n">
-        <v>51.71264550841944</v>
+        <v>60.85907496485993</v>
       </c>
       <c r="O4" t="n">
         <v>56.07489807299633</v>
       </c>
       <c r="P4" t="n">
-        <v>64.55671839103454</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.35952565992557</v>
+        <v>70.50595511636605</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>82.10046808443771</v>
       </c>
       <c r="K5" t="n">
-        <v>98.28281912965761</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>104.6318275192853</v>
@@ -8227,7 +8227,7 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>102.0587202130598</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
@@ -8236,10 +8236,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>98.81068115028181</v>
+        <v>99.18023385559253</v>
       </c>
       <c r="R5" t="n">
-        <v>96.458572271164</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>60.14611555112977</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>64.97221224105589</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
@@ -8306,10 +8306,10 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>61.97027014487976</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>66.89790845644049</v>
       </c>
       <c r="P6" t="n">
         <v>63.40606445924423</v>
@@ -8373,25 +8373,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>60.21002243408518</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K7" t="n">
-        <v>61.39679901550731</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L7" t="n">
-        <v>54.62829389390151</v>
+        <v>63.77472335034199</v>
       </c>
       <c r="M7" t="n">
-        <v>65.41137195522053</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N7" t="n">
         <v>51.71264550841944</v>
       </c>
       <c r="O7" t="n">
-        <v>56.07489807299633</v>
+        <v>64.8517748241261</v>
       </c>
       <c r="P7" t="n">
-        <v>55.77984163990478</v>
+        <v>64.92627109634527</v>
       </c>
       <c r="Q7" t="n">
         <v>70.50595511636605</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>82.10046808443771</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>104.6318275192853</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>102.4366539134859</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>102.0587202130598</v>
+        <v>101.6891675077491</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>102.3362050822236</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>102.7957927373246</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>99.18023385559253</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8537,7 +8537,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>65.26095326728954</v>
       </c>
       <c r="M9" t="n">
         <v>66.34116048954718</v>
@@ -8549,7 +8549,7 @@
         <v>66.89790845644049</v>
       </c>
       <c r="P9" t="n">
-        <v>63.40606445924423</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8610,13 +8610,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>60.21002243408518</v>
+        <v>60.57957513939591</v>
       </c>
       <c r="K10" t="n">
-        <v>52.25036955906683</v>
+        <v>61.39679901550731</v>
       </c>
       <c r="L10" t="n">
-        <v>54.62829389390151</v>
+        <v>63.77472335034199</v>
       </c>
       <c r="M10" t="n">
         <v>56.26494249878004</v>
@@ -8625,13 +8625,13 @@
         <v>51.71264550841944</v>
       </c>
       <c r="O10" t="n">
-        <v>65.22132752943682</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P10" t="n">
-        <v>64.92627109634527</v>
+        <v>64.55671839103454</v>
       </c>
       <c r="Q10" t="n">
-        <v>70.50595511636605</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,22 +8692,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>454.2071525169571</v>
       </c>
       <c r="L11" t="n">
-        <v>409.0267933428844</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>376.8880543109215</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>283.7148578065647</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>388.7465102910362</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>226.6760426523771</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8765,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.76545843403778</v>
+        <v>9.289045568206213</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.5223920625545</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>489.602984572064</v>
       </c>
       <c r="L12" t="n">
-        <v>251.0314313643242</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>408.5503948754107</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>398.1380031894295</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>3.065932926440702</v>
+        <v>3.065932926440695</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>454.2071525169571</v>
       </c>
       <c r="L14" t="n">
-        <v>409.0267933428844</v>
+        <v>285.3459601275252</v>
       </c>
       <c r="M14" t="n">
-        <v>376.8880543109215</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>283.7148578065647</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>315.7268962390515</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>408.5503948754107</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>398.1380031894295</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>251.0314313643243</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>3.065932926440702</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,25 +9166,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>454.2071525169571</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>283.4647059462711</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>371.726137745965</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>184.6486320432638</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>430.7739209001495</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.289045568206216</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>413.5161464351074</v>
+        <v>315.7268962390515</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>408.5503948754106</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>3.065932926440702</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>133.6892786572378</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>409.0267933428844</v>
       </c>
       <c r="M20" t="n">
-        <v>376.8880543109215</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>430.7739209001495</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>202.2478677095361</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9476,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.289045568206216</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>134.0955479631384</v>
+        <v>401.5192627843089</v>
       </c>
       <c r="L21" t="n">
-        <v>439.7579329111895</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>408.5503948754107</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>3.065932926440695</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>73.48270612862096</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L23" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M23" t="n">
-        <v>877.4504173780091</v>
+        <v>414.2794439179706</v>
       </c>
       <c r="N23" t="n">
-        <v>853.701196452193</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>743.321953824879</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>9.289045568206216</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>45.62045457497585</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>299.3769950668197</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>3.065932926440702</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>37.2665410081694</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M26" t="n">
         <v>877.4504173780091</v>
@@ -9892,13 +9892,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P26" t="n">
-        <v>628.1510783507341</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>96.11170186785378</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>9.289045568206216</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>551.9600996464424</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>104.1584375142713</v>
       </c>
       <c r="R27" t="n">
-        <v>3.065932926440702</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>153.7066614552031</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>632.7318453389136</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N29" t="n">
-        <v>853.701196452193</v>
+        <v>761.495785109158</v>
       </c>
       <c r="O29" t="n">
-        <v>743.321953824879</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10187,19 +10187,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>9.289045568206216</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>315.7268962390515</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>36.48605224946121</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>621.6393243851574</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>3.065932926440702</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L32" t="n">
-        <v>815.2746908024792</v>
+        <v>450.0160157751193</v>
       </c>
       <c r="M32" t="n">
-        <v>877.4504173780091</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>853.701196452193</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q32" t="n">
-        <v>37.26654100816978</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>9.289045568206216</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>45.62045457497597</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>299.3769950668199</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>3.065932926440702</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,13 +10588,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>196.8357992842868</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>196.8357992842867</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>9.289045568206216</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>382.3086083993286</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>439.7579329111895</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>163.7185940340998</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>398.1380031894294</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>3.065932926440702</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>454.2071525169572</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>409.0267933428844</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>206.395759600529</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>196.8357992842867</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>9.289045568206216</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>315.7268962390515</v>
       </c>
       <c r="L39" t="n">
-        <v>439.7579329111895</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>408.5503948754107</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>219.8879145083958</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>3.065932926440702</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>155.4364062145028</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>409.0267933428845</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>376.8880543109215</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11077,13 +11077,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>325.1142508763485</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>9.289045568206216</v>
+        <v>9.289045568206213</v>
       </c>
       <c r="J42" t="n">
         <v>246.129700984478</v>
@@ -11150,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>398.1380031894295</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>422.6579362622047</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>461.480309311528</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.270601858883722</v>
+        <v>274.7938654537322</v>
       </c>
       <c r="R42" t="n">
-        <v>3.065932926440702</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>409.0267933428844</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>376.8880543109215</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>283.7148578065647</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>430.7739209001495</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>180.500740152271</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>315.7268962390515</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>401.5192627843088</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>3.065932926440702</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.9572413489716</v>
       </c>
       <c r="H11" t="n">
-        <v>290.5556061473074</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>20.57509085115342</v>
@@ -23323,7 +23323,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>272.6456344445684</v>
+        <v>160.2439992429043</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>119.2262534613459</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>164.8226104303953</v>
+        <v>57.58408595183644</v>
       </c>
       <c r="H13" t="n">
-        <v>141.3962838682001</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>92.46935422024676</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -23509,10 +23509,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>402.9572413489716</v>
       </c>
       <c r="H14" t="n">
-        <v>290.5556061473074</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>20.57509085115342</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>124.951690772771</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>250.3273142760221</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>97.6377226990314</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -23667,13 +23667,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>164.8226104303953</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>92.46935422024676</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>171.3654368228146</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>76.1245550471256</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>155.487989863229</v>
+        <v>261.126827386705</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>290.5556061473074</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>20.57509085115342</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>95.5595853423645</v>
       </c>
       <c r="T17" t="n">
-        <v>212.6137601753971</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.355186029715</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>122.1790726479356</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>126.1491656614222</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>141.3962838682001</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>92.46935422024676</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S19" t="n">
-        <v>171.3654368228146</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23971,25 +23971,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>350.9344003030382</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>290.5556061473074</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>20.57509085115342</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>95.5595853423645</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.355186029715</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>160.8645994791644</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.8226104303953</v>
       </c>
       <c r="H22" t="n">
-        <v>141.3962838682001</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>171.3654368228146</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>235.5714643365226</v>
       </c>
       <c r="W22" t="n">
-        <v>19.33007195906924</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>20.57509085115342</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>95.5595853423645</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.6137601753971</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>31.93060789562549</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>319.5288625622345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>178.0433470768279</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.8226104303953</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>171.3654368228146</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>55.26965845645003</v>
       </c>
     </row>
     <row r="26">
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>95.5595853423645</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.6137601753971</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>162.9856566725448</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>280.0398315055767</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>122.466058011271</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>141.3962838682001</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>92.46935422024676</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.9261601361662</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>35.30128643093479</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>375.5994168479422</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.6137601753971</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>162.9856566725448</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>46.05438163210904</v>
+        <v>27.71069415136927</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>141.3962838682001</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>375.5994168479422</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>375.5994168479422</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>15.80754109908676</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>122.466058011271</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>141.3962838682001</v>
       </c>
       <c r="I34" t="n">
         <v>92.46935422024676</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.9261601361662</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>160.5345023453287</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>290.5556061473074</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>95.5595853423645</v>
       </c>
       <c r="T35" t="n">
-        <v>212.6137601753971</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>100.7901091934373</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>5.234918211839329</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>13.5685765679934</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>171.3654368228146</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>279.9289690666107</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>194.5771717894627</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>290.5556061473074</v>
       </c>
       <c r="I38" t="n">
-        <v>20.57509085115342</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>95.5595853423645</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>212.6137601753971</v>
@@ -25453,13 +25453,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>281.1192167728216</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>36.64706320862712</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.8226104303953</v>
       </c>
       <c r="H40" t="n">
-        <v>141.3962838682001</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>13.74602476312209</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25633,22 +25633,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>261.7937649476672</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>402.9572413489716</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>52.89635405621439</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>20.57509085115342</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>95.5595853423645</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.6137601753971</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.355186029715</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -25693,10 +25693,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>180.2503562550499</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.8450078532006</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>6.078538487574974</v>
+        <v>310.7118479829806</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>402.9572413489716</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>290.5556061473074</v>
       </c>
       <c r="I44" t="n">
-        <v>20.57509085115342</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>212.6137601753971</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.355186029715</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25933,7 +25933,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26034,16 +26034,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>126.1491656614222</v>
       </c>
       <c r="G46" t="n">
-        <v>5.183209541474014</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>141.3962838682001</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>92.46935422024676</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S46" t="n">
-        <v>171.3654368228146</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.9261601361662</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>464692.0404145817</v>
+        <v>464692.0404145819</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>464692.0404145819</v>
+        <v>464692.0404145818</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>694018.1338716799</v>
+        <v>694018.13387168</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>690397.0547350928</v>
+        <v>690397.054735093</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>690397.0547350928</v>
+        <v>690397.054735093</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>690397.0547350928</v>
+        <v>690397.0547350929</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>464692.0404145819</v>
+        <v>464692.0404145818</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>464692.0404145818</v>
+        <v>464692.0404145817</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>464692.0404145818</v>
+        <v>464692.0404145819</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>520668.1094139721</v>
       </c>
       <c r="C2" t="n">
-        <v>520668.1094139722</v>
+        <v>520668.1094139721</v>
       </c>
       <c r="D2" t="n">
-        <v>520668.1094139722</v>
+        <v>520668.1094139721</v>
       </c>
       <c r="E2" t="n">
         <v>342444.4514153167</v>
       </c>
       <c r="F2" t="n">
-        <v>342444.4514153166</v>
+        <v>342444.4514153167</v>
       </c>
       <c r="G2" t="n">
-        <v>342444.4514153166</v>
+        <v>342444.4514153167</v>
       </c>
       <c r="H2" t="n">
-        <v>342444.4514153166</v>
+        <v>342444.4514153167</v>
       </c>
       <c r="I2" t="n">
-        <v>485594.4546856443</v>
+        <v>485594.4546856439</v>
       </c>
       <c r="J2" t="n">
         <v>483334.1035741316</v>
       </c>
       <c r="K2" t="n">
-        <v>483334.1035741315</v>
+        <v>483334.1035741316</v>
       </c>
       <c r="L2" t="n">
-        <v>483334.1035741315</v>
+        <v>483334.1035741316</v>
       </c>
       <c r="M2" t="n">
+        <v>342444.4514153167</v>
+      </c>
+      <c r="N2" t="n">
+        <v>342444.4514153168</v>
+      </c>
+      <c r="O2" t="n">
+        <v>342444.4514153167</v>
+      </c>
+      <c r="P2" t="n">
         <v>342444.4514153169</v>
-      </c>
-      <c r="N2" t="n">
-        <v>342444.4514153167</v>
-      </c>
-      <c r="O2" t="n">
-        <v>342444.451415317</v>
-      </c>
-      <c r="P2" t="n">
-        <v>342444.4514153166</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3065.178878730687</v>
+        <v>3065.178878730705</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>346403.2248855641</v>
       </c>
       <c r="E4" t="n">
-        <v>58523.87007092831</v>
+        <v>58523.87007092829</v>
       </c>
       <c r="F4" t="n">
         <v>58523.87007092831</v>
       </c>
       <c r="G4" t="n">
-        <v>58523.87007092829</v>
+        <v>58523.8700709283</v>
       </c>
       <c r="H4" t="n">
-        <v>58523.87007092831</v>
+        <v>58523.8700709283</v>
       </c>
       <c r="I4" t="n">
         <v>118133.1906348526</v>
@@ -26450,16 +26450,16 @@
         <v>117191.9542330712</v>
       </c>
       <c r="M4" t="n">
-        <v>58523.87007092831</v>
+        <v>58523.8700709283</v>
       </c>
       <c r="N4" t="n">
         <v>58523.8700709283</v>
       </c>
       <c r="O4" t="n">
-        <v>58523.87007092831</v>
+        <v>58523.8700709283</v>
       </c>
       <c r="P4" t="n">
-        <v>58523.87007092831</v>
+        <v>58523.8700709283</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>34183.70291095158</v>
       </c>
       <c r="E5" t="n">
-        <v>44349.09046540878</v>
+        <v>44349.09046540879</v>
       </c>
       <c r="F5" t="n">
-        <v>44349.09046540878</v>
+        <v>44349.09046540879</v>
       </c>
       <c r="G5" t="n">
-        <v>44349.09046540878</v>
+        <v>44349.09046540879</v>
       </c>
       <c r="H5" t="n">
-        <v>44349.09046540878</v>
+        <v>44349.09046540879</v>
       </c>
       <c r="I5" t="n">
         <v>79567.57184023042</v>
@@ -26502,16 +26502,16 @@
         <v>79011.46892927884</v>
       </c>
       <c r="M5" t="n">
-        <v>44349.09046540878</v>
+        <v>44349.09046540879</v>
       </c>
       <c r="N5" t="n">
-        <v>44349.09046540878</v>
+        <v>44349.09046540879</v>
       </c>
       <c r="O5" t="n">
-        <v>44349.09046540878</v>
+        <v>44349.09046540879</v>
       </c>
       <c r="P5" t="n">
-        <v>44349.09046540878</v>
+        <v>44349.09046540879</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137016.0027387257</v>
+        <v>137014.2666503198</v>
       </c>
       <c r="C6" t="n">
-        <v>140081.1816174565</v>
+        <v>140079.4455290505</v>
       </c>
       <c r="D6" t="n">
-        <v>140081.1816174565</v>
+        <v>140079.4455290505</v>
       </c>
       <c r="E6" t="n">
-        <v>-267142.812587601</v>
+        <v>-267701.4976072527</v>
       </c>
       <c r="F6" t="n">
-        <v>239571.4908789795</v>
+        <v>239012.8058593279</v>
       </c>
       <c r="G6" t="n">
-        <v>239571.4908789795</v>
+        <v>239012.8058593279</v>
       </c>
       <c r="H6" t="n">
-        <v>239571.4908789795</v>
+        <v>239012.8058593279</v>
       </c>
       <c r="I6" t="n">
-        <v>133858.5970514503</v>
+        <v>133747.2557920179</v>
       </c>
       <c r="J6" t="n">
-        <v>287130.6804117815</v>
+        <v>287012.2755551261</v>
       </c>
       <c r="K6" t="n">
-        <v>287130.6804117815</v>
+        <v>287012.2755551262</v>
       </c>
       <c r="L6" t="n">
-        <v>287130.6804117815</v>
+        <v>287012.2755551261</v>
       </c>
       <c r="M6" t="n">
-        <v>239571.4908789798</v>
+        <v>239012.8058593279</v>
       </c>
       <c r="N6" t="n">
-        <v>239571.4908789796</v>
+        <v>239012.805859328</v>
       </c>
       <c r="O6" t="n">
-        <v>239571.4908789799</v>
+        <v>239012.8058593279</v>
       </c>
       <c r="P6" t="n">
-        <v>239571.4908789795</v>
+        <v>239012.8058593281</v>
       </c>
     </row>
   </sheetData>
@@ -26804,7 +26804,7 @@
         <v>579.2513384016718</v>
       </c>
       <c r="G4" t="n">
-        <v>579.2513384016717</v>
+        <v>579.2513384016718</v>
       </c>
       <c r="H4" t="n">
         <v>579.2513384016718</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.7535728527903</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
         <v>132.6551205385437</v>
@@ -27469,16 +27469,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>99.81410595408768</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>96.77378210236419</v>
       </c>
       <c r="H3" t="n">
         <v>60.89331137820062</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>11.39467600952174</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27523,10 +27523,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>166.5065469772634</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>148.6615105833678</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -27548,10 +27548,10 @@
         <v>150.1552775239232</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8383851740741</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>156.4314577072715</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -27703,19 +27703,19 @@
         <v>107.6720111375687</v>
       </c>
       <c r="E6" t="n">
-        <v>119.2878878475953</v>
+        <v>110.1414583911548</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193205</v>
+        <v>98.72385156287997</v>
       </c>
       <c r="G6" t="n">
         <v>96.77378210236419</v>
       </c>
       <c r="H6" t="n">
-        <v>60.89331137820062</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>11.39467600952174</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>151.245531915131</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>153.8383851740741</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>156.4314577072715</v>
       </c>
       <c r="H7" t="n">
-        <v>138.9649511861574</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>107.1264103714843</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>75.27356168491386</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>175.3814209824483</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -27833,7 +27833,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>262.0004581534328</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -27946,13 +27946,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>96.77378210236419</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>60.89331137820062</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>11.39467600952174</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,16 +27982,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>98.85393472160148</v>
+        <v>97.76368033039377</v>
       </c>
       <c r="T9" t="n">
-        <v>157.7484451748619</v>
+        <v>148.6020157184214</v>
       </c>
       <c r="U9" t="n">
-        <v>195.3773027531635</v>
+        <v>186.230873296723</v>
       </c>
       <c r="V9" t="n">
-        <v>211.5744117368965</v>
+        <v>203.5182366716637</v>
       </c>
       <c r="W9" t="n">
         <v>211.1008365810345</v>
@@ -28019,19 +28019,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>151.245531915131</v>
+        <v>150.1552775239232</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8383851740741</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>156.4314577072715</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>106.0361559802766</v>
+        <v>107.1264103714843</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>75.27356168491386</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -28076,7 +28076,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>226.8139940624729</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -31788,7 +31788,7 @@
         <v>105.7674838940749</v>
       </c>
       <c r="S11" t="n">
-        <v>38.36867911147564</v>
+        <v>38.36867911147565</v>
       </c>
       <c r="T11" t="n">
         <v>7.370659037212707</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9008909782992334</v>
+        <v>0.9008909782992335</v>
       </c>
       <c r="H12" t="n">
         <v>8.700710237784703</v>
       </c>
       <c r="I12" t="n">
-        <v>31.01751833179378</v>
+        <v>31.01751833179379</v>
       </c>
       <c r="J12" t="n">
-        <v>85.11444106817451</v>
+        <v>85.11444106817453</v>
       </c>
       <c r="K12" t="n">
-        <v>145.4741366142231</v>
+        <v>145.4741366142232</v>
       </c>
       <c r="L12" t="n">
         <v>195.6079293013314</v>
@@ -31855,7 +31855,7 @@
         <v>234.3067286059923</v>
       </c>
       <c r="O12" t="n">
-        <v>214.3448811394671</v>
+        <v>214.3448811394672</v>
       </c>
       <c r="P12" t="n">
         <v>172.0306640929475</v>
@@ -31873,7 +31873,7 @@
         <v>3.631222846741207</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05926914330916011</v>
+        <v>0.05926914330916012</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7552767333167284</v>
+        <v>0.7552767333167285</v>
       </c>
       <c r="H13" t="n">
-        <v>6.715096774397827</v>
+        <v>6.715096774397828</v>
       </c>
       <c r="I13" t="n">
         <v>22.71323121647035</v>
       </c>
       <c r="J13" t="n">
-        <v>53.3980650454927</v>
+        <v>53.39806504549271</v>
       </c>
       <c r="K13" t="n">
-        <v>87.7494241071617</v>
+        <v>87.74942410716172</v>
       </c>
       <c r="L13" t="n">
         <v>112.2890517878344</v>
@@ -31937,22 +31937,22 @@
         <v>106.7549331782591</v>
       </c>
       <c r="P13" t="n">
-        <v>91.34728781859774</v>
+        <v>91.34728781859775</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.24412718709442</v>
+        <v>63.24412718709443</v>
       </c>
       <c r="R13" t="n">
         <v>33.95998839076853</v>
       </c>
       <c r="S13" t="n">
-        <v>13.16241361607425</v>
+        <v>13.16241361607426</v>
       </c>
       <c r="T13" t="n">
-        <v>3.227091496898748</v>
+        <v>3.227091496898749</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04119691272636705</v>
+        <v>0.04119691272636706</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32025,7 +32025,7 @@
         <v>105.7674838940749</v>
       </c>
       <c r="S14" t="n">
-        <v>38.36867911147564</v>
+        <v>38.36867911147565</v>
       </c>
       <c r="T14" t="n">
         <v>7.370659037212707</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9008909782992334</v>
+        <v>0.9008909782992335</v>
       </c>
       <c r="H15" t="n">
         <v>8.700710237784703</v>
       </c>
       <c r="I15" t="n">
-        <v>31.01751833179378</v>
+        <v>31.01751833179379</v>
       </c>
       <c r="J15" t="n">
-        <v>85.11444106817451</v>
+        <v>85.11444106817453</v>
       </c>
       <c r="K15" t="n">
-        <v>145.4741366142231</v>
+        <v>145.4741366142232</v>
       </c>
       <c r="L15" t="n">
         <v>195.6079293013314</v>
@@ -32092,7 +32092,7 @@
         <v>234.3067286059923</v>
       </c>
       <c r="O15" t="n">
-        <v>214.3448811394671</v>
+        <v>214.3448811394672</v>
       </c>
       <c r="P15" t="n">
         <v>172.0306640929475</v>
@@ -32110,7 +32110,7 @@
         <v>3.631222846741207</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05926914330916011</v>
+        <v>0.05926914330916012</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7552767333167284</v>
+        <v>0.7552767333167285</v>
       </c>
       <c r="H16" t="n">
-        <v>6.715096774397827</v>
+        <v>6.715096774397828</v>
       </c>
       <c r="I16" t="n">
         <v>22.71323121647035</v>
       </c>
       <c r="J16" t="n">
-        <v>53.3980650454927</v>
+        <v>53.39806504549271</v>
       </c>
       <c r="K16" t="n">
-        <v>87.7494241071617</v>
+        <v>87.74942410716172</v>
       </c>
       <c r="L16" t="n">
         <v>112.2890517878344</v>
@@ -32174,22 +32174,22 @@
         <v>106.7549331782591</v>
       </c>
       <c r="P16" t="n">
-        <v>91.34728781859774</v>
+        <v>91.34728781859775</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.24412718709442</v>
+        <v>63.24412718709443</v>
       </c>
       <c r="R16" t="n">
         <v>33.95998839076853</v>
       </c>
       <c r="S16" t="n">
-        <v>13.16241361607425</v>
+        <v>13.16241361607426</v>
       </c>
       <c r="T16" t="n">
-        <v>3.227091496898748</v>
+        <v>3.227091496898749</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04119691272636705</v>
+        <v>0.04119691272636706</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32262,7 +32262,7 @@
         <v>105.7674838940749</v>
       </c>
       <c r="S17" t="n">
-        <v>38.36867911147564</v>
+        <v>38.36867911147565</v>
       </c>
       <c r="T17" t="n">
         <v>7.370659037212707</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9008909782992334</v>
+        <v>0.9008909782992335</v>
       </c>
       <c r="H18" t="n">
         <v>8.700710237784703</v>
       </c>
       <c r="I18" t="n">
-        <v>31.01751833179378</v>
+        <v>31.01751833179379</v>
       </c>
       <c r="J18" t="n">
-        <v>85.11444106817451</v>
+        <v>85.11444106817453</v>
       </c>
       <c r="K18" t="n">
-        <v>145.4741366142231</v>
+        <v>145.4741366142232</v>
       </c>
       <c r="L18" t="n">
         <v>195.6079293013314</v>
@@ -32329,7 +32329,7 @@
         <v>234.3067286059923</v>
       </c>
       <c r="O18" t="n">
-        <v>214.3448811394671</v>
+        <v>214.3448811394672</v>
       </c>
       <c r="P18" t="n">
         <v>172.0306640929475</v>
@@ -32347,7 +32347,7 @@
         <v>3.631222846741207</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05926914330916011</v>
+        <v>0.05926914330916012</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7552767333167284</v>
+        <v>0.7552767333167285</v>
       </c>
       <c r="H19" t="n">
-        <v>6.715096774397827</v>
+        <v>6.715096774397828</v>
       </c>
       <c r="I19" t="n">
         <v>22.71323121647035</v>
       </c>
       <c r="J19" t="n">
-        <v>53.3980650454927</v>
+        <v>53.39806504549271</v>
       </c>
       <c r="K19" t="n">
-        <v>87.7494241071617</v>
+        <v>87.74942410716172</v>
       </c>
       <c r="L19" t="n">
         <v>112.2890517878344</v>
@@ -32411,22 +32411,22 @@
         <v>106.7549331782591</v>
       </c>
       <c r="P19" t="n">
-        <v>91.34728781859774</v>
+        <v>91.34728781859775</v>
       </c>
       <c r="Q19" t="n">
-        <v>63.24412718709442</v>
+        <v>63.24412718709443</v>
       </c>
       <c r="R19" t="n">
         <v>33.95998839076853</v>
       </c>
       <c r="S19" t="n">
-        <v>13.16241361607425</v>
+        <v>13.16241361607426</v>
       </c>
       <c r="T19" t="n">
-        <v>3.227091496898748</v>
+        <v>3.227091496898749</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04119691272636705</v>
+        <v>0.04119691272636706</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32499,7 +32499,7 @@
         <v>105.7674838940749</v>
       </c>
       <c r="S20" t="n">
-        <v>38.36867911147564</v>
+        <v>38.36867911147565</v>
       </c>
       <c r="T20" t="n">
         <v>7.370659037212707</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9008909782992334</v>
+        <v>0.9008909782992335</v>
       </c>
       <c r="H21" t="n">
         <v>8.700710237784703</v>
       </c>
       <c r="I21" t="n">
-        <v>31.01751833179378</v>
+        <v>31.01751833179379</v>
       </c>
       <c r="J21" t="n">
-        <v>85.11444106817451</v>
+        <v>85.11444106817453</v>
       </c>
       <c r="K21" t="n">
-        <v>145.4741366142231</v>
+        <v>145.4741366142232</v>
       </c>
       <c r="L21" t="n">
         <v>195.6079293013314</v>
@@ -32566,7 +32566,7 @@
         <v>234.3067286059923</v>
       </c>
       <c r="O21" t="n">
-        <v>214.3448811394671</v>
+        <v>214.3448811394672</v>
       </c>
       <c r="P21" t="n">
         <v>172.0306640929475</v>
@@ -32584,7 +32584,7 @@
         <v>3.631222846741207</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05926914330916011</v>
+        <v>0.05926914330916012</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7552767333167284</v>
+        <v>0.7552767333167285</v>
       </c>
       <c r="H22" t="n">
-        <v>6.715096774397827</v>
+        <v>6.715096774397828</v>
       </c>
       <c r="I22" t="n">
         <v>22.71323121647035</v>
       </c>
       <c r="J22" t="n">
-        <v>53.3980650454927</v>
+        <v>53.39806504549271</v>
       </c>
       <c r="K22" t="n">
-        <v>87.7494241071617</v>
+        <v>87.74942410716172</v>
       </c>
       <c r="L22" t="n">
         <v>112.2890517878344</v>
@@ -32648,22 +32648,22 @@
         <v>106.7549331782591</v>
       </c>
       <c r="P22" t="n">
-        <v>91.34728781859774</v>
+        <v>91.34728781859775</v>
       </c>
       <c r="Q22" t="n">
-        <v>63.24412718709442</v>
+        <v>63.24412718709443</v>
       </c>
       <c r="R22" t="n">
         <v>33.95998839076853</v>
       </c>
       <c r="S22" t="n">
-        <v>13.16241361607425</v>
+        <v>13.16241361607426</v>
       </c>
       <c r="T22" t="n">
-        <v>3.227091496898748</v>
+        <v>3.227091496898749</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04119691272636705</v>
+        <v>0.04119691272636706</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32736,7 +32736,7 @@
         <v>105.7674838940749</v>
       </c>
       <c r="S23" t="n">
-        <v>38.36867911147564</v>
+        <v>38.36867911147565</v>
       </c>
       <c r="T23" t="n">
         <v>7.370659037212707</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9008909782992334</v>
+        <v>0.9008909782992335</v>
       </c>
       <c r="H24" t="n">
         <v>8.700710237784703</v>
       </c>
       <c r="I24" t="n">
-        <v>31.01751833179378</v>
+        <v>31.01751833179379</v>
       </c>
       <c r="J24" t="n">
-        <v>85.11444106817451</v>
+        <v>85.11444106817453</v>
       </c>
       <c r="K24" t="n">
-        <v>145.4741366142231</v>
+        <v>145.4741366142232</v>
       </c>
       <c r="L24" t="n">
         <v>195.6079293013314</v>
@@ -32803,7 +32803,7 @@
         <v>234.3067286059923</v>
       </c>
       <c r="O24" t="n">
-        <v>214.3448811394671</v>
+        <v>214.3448811394672</v>
       </c>
       <c r="P24" t="n">
         <v>172.0306640929475</v>
@@ -32821,7 +32821,7 @@
         <v>3.631222846741207</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05926914330916011</v>
+        <v>0.05926914330916012</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7552767333167284</v>
+        <v>0.7552767333167285</v>
       </c>
       <c r="H25" t="n">
-        <v>6.715096774397827</v>
+        <v>6.715096774397828</v>
       </c>
       <c r="I25" t="n">
         <v>22.71323121647035</v>
       </c>
       <c r="J25" t="n">
-        <v>53.3980650454927</v>
+        <v>53.39806504549271</v>
       </c>
       <c r="K25" t="n">
-        <v>87.7494241071617</v>
+        <v>87.74942410716172</v>
       </c>
       <c r="L25" t="n">
         <v>112.2890517878344</v>
@@ -32885,22 +32885,22 @@
         <v>106.7549331782591</v>
       </c>
       <c r="P25" t="n">
-        <v>91.34728781859774</v>
+        <v>91.34728781859775</v>
       </c>
       <c r="Q25" t="n">
-        <v>63.24412718709442</v>
+        <v>63.24412718709443</v>
       </c>
       <c r="R25" t="n">
         <v>33.95998839076853</v>
       </c>
       <c r="S25" t="n">
-        <v>13.16241361607425</v>
+        <v>13.16241361607426</v>
       </c>
       <c r="T25" t="n">
-        <v>3.227091496898748</v>
+        <v>3.227091496898749</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04119691272636705</v>
+        <v>0.04119691272636706</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32973,7 +32973,7 @@
         <v>105.7674838940749</v>
       </c>
       <c r="S26" t="n">
-        <v>38.36867911147564</v>
+        <v>38.36867911147565</v>
       </c>
       <c r="T26" t="n">
         <v>7.370659037212707</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9008909782992334</v>
+        <v>0.9008909782992335</v>
       </c>
       <c r="H27" t="n">
         <v>8.700710237784703</v>
       </c>
       <c r="I27" t="n">
-        <v>31.01751833179378</v>
+        <v>31.01751833179379</v>
       </c>
       <c r="J27" t="n">
-        <v>85.11444106817451</v>
+        <v>85.11444106817453</v>
       </c>
       <c r="K27" t="n">
-        <v>145.4741366142231</v>
+        <v>145.4741366142232</v>
       </c>
       <c r="L27" t="n">
         <v>195.6079293013314</v>
@@ -33040,7 +33040,7 @@
         <v>234.3067286059923</v>
       </c>
       <c r="O27" t="n">
-        <v>214.3448811394671</v>
+        <v>214.3448811394672</v>
       </c>
       <c r="P27" t="n">
         <v>172.0306640929475</v>
@@ -33058,7 +33058,7 @@
         <v>3.631222846741207</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05926914330916011</v>
+        <v>0.05926914330916012</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7552767333167284</v>
+        <v>0.7552767333167285</v>
       </c>
       <c r="H28" t="n">
-        <v>6.715096774397827</v>
+        <v>6.715096774397828</v>
       </c>
       <c r="I28" t="n">
         <v>22.71323121647035</v>
       </c>
       <c r="J28" t="n">
-        <v>53.3980650454927</v>
+        <v>53.39806504549271</v>
       </c>
       <c r="K28" t="n">
-        <v>87.7494241071617</v>
+        <v>87.74942410716172</v>
       </c>
       <c r="L28" t="n">
         <v>112.2890517878344</v>
@@ -33122,22 +33122,22 @@
         <v>106.7549331782591</v>
       </c>
       <c r="P28" t="n">
-        <v>91.34728781859774</v>
+        <v>91.34728781859775</v>
       </c>
       <c r="Q28" t="n">
-        <v>63.24412718709442</v>
+        <v>63.24412718709443</v>
       </c>
       <c r="R28" t="n">
         <v>33.95998839076853</v>
       </c>
       <c r="S28" t="n">
-        <v>13.16241361607425</v>
+        <v>13.16241361607426</v>
       </c>
       <c r="T28" t="n">
-        <v>3.227091496898748</v>
+        <v>3.227091496898749</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04119691272636705</v>
+        <v>0.04119691272636706</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33210,7 +33210,7 @@
         <v>105.7674838940749</v>
       </c>
       <c r="S29" t="n">
-        <v>38.36867911147564</v>
+        <v>38.36867911147565</v>
       </c>
       <c r="T29" t="n">
         <v>7.370659037212707</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9008909782992334</v>
+        <v>0.9008909782992335</v>
       </c>
       <c r="H30" t="n">
         <v>8.700710237784703</v>
       </c>
       <c r="I30" t="n">
-        <v>31.01751833179378</v>
+        <v>31.01751833179379</v>
       </c>
       <c r="J30" t="n">
-        <v>85.11444106817451</v>
+        <v>85.11444106817453</v>
       </c>
       <c r="K30" t="n">
-        <v>145.4741366142231</v>
+        <v>145.4741366142232</v>
       </c>
       <c r="L30" t="n">
         <v>195.6079293013314</v>
@@ -33277,7 +33277,7 @@
         <v>234.3067286059923</v>
       </c>
       <c r="O30" t="n">
-        <v>214.3448811394671</v>
+        <v>214.3448811394672</v>
       </c>
       <c r="P30" t="n">
         <v>172.0306640929475</v>
@@ -33295,7 +33295,7 @@
         <v>3.631222846741207</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05926914330916011</v>
+        <v>0.05926914330916012</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7552767333167284</v>
+        <v>0.7552767333167285</v>
       </c>
       <c r="H31" t="n">
-        <v>6.715096774397827</v>
+        <v>6.715096774397828</v>
       </c>
       <c r="I31" t="n">
         <v>22.71323121647035</v>
       </c>
       <c r="J31" t="n">
-        <v>53.3980650454927</v>
+        <v>53.39806504549271</v>
       </c>
       <c r="K31" t="n">
-        <v>87.7494241071617</v>
+        <v>87.74942410716172</v>
       </c>
       <c r="L31" t="n">
         <v>112.2890517878344</v>
@@ -33359,22 +33359,22 @@
         <v>106.7549331782591</v>
       </c>
       <c r="P31" t="n">
-        <v>91.34728781859774</v>
+        <v>91.34728781859775</v>
       </c>
       <c r="Q31" t="n">
-        <v>63.24412718709442</v>
+        <v>63.24412718709443</v>
       </c>
       <c r="R31" t="n">
         <v>33.95998839076853</v>
       </c>
       <c r="S31" t="n">
-        <v>13.16241361607425</v>
+        <v>13.16241361607426</v>
       </c>
       <c r="T31" t="n">
-        <v>3.227091496898748</v>
+        <v>3.227091496898749</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04119691272636705</v>
+        <v>0.04119691272636706</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33447,7 +33447,7 @@
         <v>105.7674838940749</v>
       </c>
       <c r="S32" t="n">
-        <v>38.36867911147564</v>
+        <v>38.36867911147565</v>
       </c>
       <c r="T32" t="n">
         <v>7.370659037212707</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9008909782992334</v>
+        <v>0.9008909782992335</v>
       </c>
       <c r="H33" t="n">
         <v>8.700710237784703</v>
       </c>
       <c r="I33" t="n">
-        <v>31.01751833179378</v>
+        <v>31.01751833179379</v>
       </c>
       <c r="J33" t="n">
-        <v>85.11444106817451</v>
+        <v>85.11444106817453</v>
       </c>
       <c r="K33" t="n">
-        <v>145.4741366142231</v>
+        <v>145.4741366142232</v>
       </c>
       <c r="L33" t="n">
         <v>195.6079293013314</v>
@@ -33514,7 +33514,7 @@
         <v>234.3067286059923</v>
       </c>
       <c r="O33" t="n">
-        <v>214.3448811394671</v>
+        <v>214.3448811394672</v>
       </c>
       <c r="P33" t="n">
         <v>172.0306640929475</v>
@@ -33532,7 +33532,7 @@
         <v>3.631222846741207</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05926914330916011</v>
+        <v>0.05926914330916012</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7552767333167284</v>
+        <v>0.7552767333167285</v>
       </c>
       <c r="H34" t="n">
-        <v>6.715096774397827</v>
+        <v>6.715096774397828</v>
       </c>
       <c r="I34" t="n">
         <v>22.71323121647035</v>
       </c>
       <c r="J34" t="n">
-        <v>53.3980650454927</v>
+        <v>53.39806504549271</v>
       </c>
       <c r="K34" t="n">
-        <v>87.7494241071617</v>
+        <v>87.74942410716172</v>
       </c>
       <c r="L34" t="n">
         <v>112.2890517878344</v>
@@ -33596,22 +33596,22 @@
         <v>106.7549331782591</v>
       </c>
       <c r="P34" t="n">
-        <v>91.34728781859774</v>
+        <v>91.34728781859775</v>
       </c>
       <c r="Q34" t="n">
-        <v>63.24412718709442</v>
+        <v>63.24412718709443</v>
       </c>
       <c r="R34" t="n">
         <v>33.95998839076853</v>
       </c>
       <c r="S34" t="n">
-        <v>13.16241361607425</v>
+        <v>13.16241361607426</v>
       </c>
       <c r="T34" t="n">
-        <v>3.227091496898748</v>
+        <v>3.227091496898749</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04119691272636705</v>
+        <v>0.04119691272636706</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33684,7 +33684,7 @@
         <v>105.7674838940749</v>
       </c>
       <c r="S35" t="n">
-        <v>38.36867911147564</v>
+        <v>38.36867911147565</v>
       </c>
       <c r="T35" t="n">
         <v>7.370659037212707</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9008909782992334</v>
+        <v>0.9008909782992335</v>
       </c>
       <c r="H36" t="n">
         <v>8.700710237784703</v>
       </c>
       <c r="I36" t="n">
-        <v>31.01751833179378</v>
+        <v>31.01751833179379</v>
       </c>
       <c r="J36" t="n">
-        <v>85.11444106817451</v>
+        <v>85.11444106817453</v>
       </c>
       <c r="K36" t="n">
-        <v>145.4741366142231</v>
+        <v>145.4741366142232</v>
       </c>
       <c r="L36" t="n">
         <v>195.6079293013314</v>
@@ -33751,7 +33751,7 @@
         <v>234.3067286059923</v>
       </c>
       <c r="O36" t="n">
-        <v>214.3448811394671</v>
+        <v>214.3448811394672</v>
       </c>
       <c r="P36" t="n">
         <v>172.0306640929475</v>
@@ -33769,7 +33769,7 @@
         <v>3.631222846741207</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05926914330916011</v>
+        <v>0.05926914330916012</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7552767333167284</v>
+        <v>0.7552767333167285</v>
       </c>
       <c r="H37" t="n">
-        <v>6.715096774397827</v>
+        <v>6.715096774397828</v>
       </c>
       <c r="I37" t="n">
         <v>22.71323121647035</v>
       </c>
       <c r="J37" t="n">
-        <v>53.3980650454927</v>
+        <v>53.39806504549271</v>
       </c>
       <c r="K37" t="n">
-        <v>87.7494241071617</v>
+        <v>87.74942410716172</v>
       </c>
       <c r="L37" t="n">
         <v>112.2890517878344</v>
@@ -33833,22 +33833,22 @@
         <v>106.7549331782591</v>
       </c>
       <c r="P37" t="n">
-        <v>91.34728781859774</v>
+        <v>91.34728781859775</v>
       </c>
       <c r="Q37" t="n">
-        <v>63.24412718709442</v>
+        <v>63.24412718709443</v>
       </c>
       <c r="R37" t="n">
         <v>33.95998839076853</v>
       </c>
       <c r="S37" t="n">
-        <v>13.16241361607425</v>
+        <v>13.16241361607426</v>
       </c>
       <c r="T37" t="n">
-        <v>3.227091496898748</v>
+        <v>3.227091496898749</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04119691272636705</v>
+        <v>0.04119691272636706</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33921,7 +33921,7 @@
         <v>105.7674838940749</v>
       </c>
       <c r="S38" t="n">
-        <v>38.36867911147564</v>
+        <v>38.36867911147565</v>
       </c>
       <c r="T38" t="n">
         <v>7.370659037212707</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9008909782992334</v>
+        <v>0.9008909782992335</v>
       </c>
       <c r="H39" t="n">
         <v>8.700710237784703</v>
       </c>
       <c r="I39" t="n">
-        <v>31.01751833179378</v>
+        <v>31.01751833179379</v>
       </c>
       <c r="J39" t="n">
-        <v>85.11444106817451</v>
+        <v>85.11444106817453</v>
       </c>
       <c r="K39" t="n">
-        <v>145.4741366142231</v>
+        <v>145.4741366142232</v>
       </c>
       <c r="L39" t="n">
         <v>195.6079293013314</v>
@@ -33988,7 +33988,7 @@
         <v>234.3067286059923</v>
       </c>
       <c r="O39" t="n">
-        <v>214.3448811394671</v>
+        <v>214.3448811394672</v>
       </c>
       <c r="P39" t="n">
         <v>172.0306640929475</v>
@@ -34006,7 +34006,7 @@
         <v>3.631222846741207</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05926914330916011</v>
+        <v>0.05926914330916012</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7552767333167284</v>
+        <v>0.7552767333167285</v>
       </c>
       <c r="H40" t="n">
-        <v>6.715096774397827</v>
+        <v>6.715096774397828</v>
       </c>
       <c r="I40" t="n">
         <v>22.71323121647035</v>
       </c>
       <c r="J40" t="n">
-        <v>53.3980650454927</v>
+        <v>53.39806504549271</v>
       </c>
       <c r="K40" t="n">
-        <v>87.7494241071617</v>
+        <v>87.74942410716172</v>
       </c>
       <c r="L40" t="n">
         <v>112.2890517878344</v>
@@ -34070,22 +34070,22 @@
         <v>106.7549331782591</v>
       </c>
       <c r="P40" t="n">
-        <v>91.34728781859774</v>
+        <v>91.34728781859775</v>
       </c>
       <c r="Q40" t="n">
-        <v>63.24412718709442</v>
+        <v>63.24412718709443</v>
       </c>
       <c r="R40" t="n">
         <v>33.95998839076853</v>
       </c>
       <c r="S40" t="n">
-        <v>13.16241361607425</v>
+        <v>13.16241361607426</v>
       </c>
       <c r="T40" t="n">
-        <v>3.227091496898748</v>
+        <v>3.227091496898749</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04119691272636705</v>
+        <v>0.04119691272636706</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34158,7 +34158,7 @@
         <v>105.7674838940749</v>
       </c>
       <c r="S41" t="n">
-        <v>38.36867911147564</v>
+        <v>38.36867911147565</v>
       </c>
       <c r="T41" t="n">
         <v>7.370659037212707</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9008909782992334</v>
+        <v>0.9008909782992335</v>
       </c>
       <c r="H42" t="n">
         <v>8.700710237784703</v>
       </c>
       <c r="I42" t="n">
-        <v>31.01751833179378</v>
+        <v>31.01751833179379</v>
       </c>
       <c r="J42" t="n">
-        <v>85.11444106817451</v>
+        <v>85.11444106817453</v>
       </c>
       <c r="K42" t="n">
-        <v>145.4741366142231</v>
+        <v>145.4741366142232</v>
       </c>
       <c r="L42" t="n">
         <v>195.6079293013314</v>
@@ -34225,7 +34225,7 @@
         <v>234.3067286059923</v>
       </c>
       <c r="O42" t="n">
-        <v>214.3448811394671</v>
+        <v>214.3448811394672</v>
       </c>
       <c r="P42" t="n">
         <v>172.0306640929475</v>
@@ -34243,7 +34243,7 @@
         <v>3.631222846741207</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05926914330916011</v>
+        <v>0.05926914330916012</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7552767333167284</v>
+        <v>0.7552767333167285</v>
       </c>
       <c r="H43" t="n">
-        <v>6.715096774397827</v>
+        <v>6.715096774397828</v>
       </c>
       <c r="I43" t="n">
         <v>22.71323121647035</v>
       </c>
       <c r="J43" t="n">
-        <v>53.3980650454927</v>
+        <v>53.39806504549271</v>
       </c>
       <c r="K43" t="n">
-        <v>87.7494241071617</v>
+        <v>87.74942410716172</v>
       </c>
       <c r="L43" t="n">
         <v>112.2890517878344</v>
@@ -34307,22 +34307,22 @@
         <v>106.7549331782591</v>
       </c>
       <c r="P43" t="n">
-        <v>91.34728781859774</v>
+        <v>91.34728781859775</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.24412718709442</v>
+        <v>63.24412718709443</v>
       </c>
       <c r="R43" t="n">
         <v>33.95998839076853</v>
       </c>
       <c r="S43" t="n">
-        <v>13.16241361607425</v>
+        <v>13.16241361607426</v>
       </c>
       <c r="T43" t="n">
-        <v>3.227091496898748</v>
+        <v>3.227091496898749</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04119691272636705</v>
+        <v>0.04119691272636706</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34395,7 +34395,7 @@
         <v>105.7674838940749</v>
       </c>
       <c r="S44" t="n">
-        <v>38.36867911147564</v>
+        <v>38.36867911147565</v>
       </c>
       <c r="T44" t="n">
         <v>7.370659037212707</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9008909782992334</v>
+        <v>0.9008909782992335</v>
       </c>
       <c r="H45" t="n">
         <v>8.700710237784703</v>
       </c>
       <c r="I45" t="n">
-        <v>31.01751833179378</v>
+        <v>31.01751833179379</v>
       </c>
       <c r="J45" t="n">
-        <v>85.11444106817451</v>
+        <v>85.11444106817453</v>
       </c>
       <c r="K45" t="n">
-        <v>145.4741366142231</v>
+        <v>145.4741366142232</v>
       </c>
       <c r="L45" t="n">
         <v>195.6079293013314</v>
@@ -34462,7 +34462,7 @@
         <v>234.3067286059923</v>
       </c>
       <c r="O45" t="n">
-        <v>214.3448811394671</v>
+        <v>214.3448811394672</v>
       </c>
       <c r="P45" t="n">
         <v>172.0306640929475</v>
@@ -34480,7 +34480,7 @@
         <v>3.631222846741207</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05926914330916011</v>
+        <v>0.05926914330916012</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7552767333167284</v>
+        <v>0.7552767333167285</v>
       </c>
       <c r="H46" t="n">
-        <v>6.715096774397827</v>
+        <v>6.715096774397828</v>
       </c>
       <c r="I46" t="n">
         <v>22.71323121647035</v>
       </c>
       <c r="J46" t="n">
-        <v>53.3980650454927</v>
+        <v>53.39806504549271</v>
       </c>
       <c r="K46" t="n">
-        <v>87.7494241071617</v>
+        <v>87.74942410716172</v>
       </c>
       <c r="L46" t="n">
         <v>112.2890517878344</v>
@@ -34544,22 +34544,22 @@
         <v>106.7549331782591</v>
       </c>
       <c r="P46" t="n">
-        <v>91.34728781859774</v>
+        <v>91.34728781859775</v>
       </c>
       <c r="Q46" t="n">
-        <v>63.24412718709442</v>
+        <v>63.24412718709443</v>
       </c>
       <c r="R46" t="n">
         <v>33.95998839076853</v>
       </c>
       <c r="S46" t="n">
-        <v>13.16241361607425</v>
+        <v>13.16241361607426</v>
       </c>
       <c r="T46" t="n">
-        <v>3.227091496898748</v>
+        <v>3.227091496898749</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04119691272636705</v>
+        <v>0.04119691272636706</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,16 +34701,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9.146429456440488</v>
+        <v>8.776876751129763</v>
       </c>
       <c r="M2" t="n">
         <v>9.146429456440488</v>
       </c>
       <c r="N2" t="n">
-        <v>8.776876751129761</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34722,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="K3" t="n">
         <v>9.146429456440488</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>9.146429456440488</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8.776876751129763</v>
+      </c>
+      <c r="N4" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8.776876751129761</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>8.776876751129763</v>
       </c>
       <c r="K5" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>9.146429456440488</v>
@@ -34947,7 +34947,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34956,10 +34956,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.776876751129761</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="R5" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>8.776876751129763</v>
       </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>9.146429456440488</v>
@@ -35093,25 +35093,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9.146429456440488</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>8.776876751129763</v>
       </c>
-      <c r="K7" t="n">
+      <c r="P7" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>9.146429456440488</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>9.146429456440488</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>8.776876751129763</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="N8" t="n">
+      <c r="Q8" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="M9" t="n">
         <v>8.776876751129763</v>
@@ -35269,7 +35269,7 @@
         <v>9.146429456440488</v>
       </c>
       <c r="P9" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>8.776876751129763</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -35345,13 +35345,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>9.146429456440488</v>
+        <v>8.776876751129761</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>69.58342693274167</v>
+        <v>69.5834269327417</v>
       </c>
       <c r="K11" t="n">
-        <v>125.0441858847146</v>
+        <v>579.2513384016718</v>
       </c>
       <c r="L11" t="n">
+        <v>170.2245450587873</v>
+      </c>
+      <c r="M11" t="n">
+        <v>202.3632840907504</v>
+      </c>
+      <c r="N11" t="n">
+        <v>207.5252006557066</v>
+      </c>
+      <c r="O11" t="n">
         <v>579.2513384016718</v>
       </c>
-      <c r="M11" t="n">
-        <v>579.2513384016718</v>
-      </c>
-      <c r="N11" t="n">
-        <v>491.2400584622713</v>
-      </c>
-      <c r="O11" t="n">
-        <v>190.5048281106356</v>
-      </c>
       <c r="P11" t="n">
-        <v>148.4774175015222</v>
+        <v>375.1534601538993</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.79332435123146</v>
+        <v>91.79332435123149</v>
       </c>
       <c r="R11" t="n">
-        <v>18.45534107935138</v>
+        <v>18.4553410793514</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.47641286583156</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>33.7452022681745</v>
+        <v>202.267594330729</v>
       </c>
       <c r="K12" t="n">
-        <v>89.64835382960774</v>
+        <v>579.2513384016718</v>
       </c>
       <c r="L12" t="n">
-        <v>390.5248368548066</v>
+        <v>139.4934054904823</v>
       </c>
       <c r="M12" t="n">
-        <v>579.2513384016718</v>
+        <v>170.7009435262611</v>
       </c>
       <c r="N12" t="n">
-        <v>579.2513384016718</v>
+        <v>181.1133352122423</v>
       </c>
       <c r="O12" t="n">
-        <v>156.5934021394671</v>
+        <v>156.5934021394672</v>
       </c>
       <c r="P12" t="n">
         <v>117.7710290901437</v>
       </c>
       <c r="Q12" t="n">
-        <v>58.3053246198143</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>69.58342693274167</v>
+        <v>399.6600197486297</v>
       </c>
       <c r="K14" t="n">
-        <v>125.0441858847146</v>
+        <v>579.2513384016718</v>
       </c>
       <c r="L14" t="n">
-        <v>579.2513384016718</v>
+        <v>455.5705051863125</v>
       </c>
       <c r="M14" t="n">
-        <v>579.2513384016718</v>
+        <v>202.3632840907504</v>
       </c>
       <c r="N14" t="n">
-        <v>491.2400584622713</v>
+        <v>207.5252006557066</v>
       </c>
       <c r="O14" t="n">
         <v>190.5048281106356</v>
       </c>
       <c r="P14" t="n">
-        <v>148.4774175015222</v>
+        <v>148.4774175015223</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.79332435123146</v>
+        <v>91.79332435123149</v>
       </c>
       <c r="R14" t="n">
-        <v>18.45534107935138</v>
+        <v>18.4553410793514</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>10.47641286583156</v>
       </c>
       <c r="J15" t="n">
-        <v>33.7452022681745</v>
+        <v>279.8749032526525</v>
       </c>
       <c r="K15" t="n">
-        <v>89.64835382960774</v>
+        <v>405.3752500686592</v>
       </c>
       <c r="L15" t="n">
         <v>139.4934054904823</v>
       </c>
       <c r="M15" t="n">
-        <v>579.2513384016718</v>
+        <v>170.7009435262611</v>
       </c>
       <c r="N15" t="n">
-        <v>579.2513384016718</v>
+        <v>181.1133352122423</v>
       </c>
       <c r="O15" t="n">
-        <v>407.6248335037915</v>
+        <v>156.5934021394672</v>
       </c>
       <c r="P15" t="n">
         <v>117.7710290901437</v>
       </c>
       <c r="Q15" t="n">
-        <v>58.3053246198143</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>85.79236654525754</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>69.58342693274167</v>
+        <v>69.5834269327417</v>
       </c>
       <c r="K17" t="n">
-        <v>125.0441858847146</v>
+        <v>579.2513384016718</v>
       </c>
       <c r="L17" t="n">
         <v>170.2245450587873</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8279900370214</v>
+        <v>202.3632840907504</v>
       </c>
       <c r="N17" t="n">
-        <v>579.2513384016717</v>
+        <v>207.5252006557066</v>
       </c>
       <c r="O17" t="n">
-        <v>190.5048281106356</v>
+        <v>375.1534601538993</v>
       </c>
       <c r="P17" t="n">
-        <v>148.4774175015222</v>
+        <v>579.2513384016718</v>
       </c>
       <c r="Q17" t="n">
-        <v>506.2321861193653</v>
+        <v>91.79332435123149</v>
       </c>
       <c r="R17" t="n">
-        <v>18.45534107935138</v>
+        <v>18.4553410793514</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.47641286583156</v>
       </c>
       <c r="J18" t="n">
         <v>279.8749032526525</v>
       </c>
       <c r="K18" t="n">
-        <v>503.1645002647152</v>
+        <v>405.3752500686592</v>
       </c>
       <c r="L18" t="n">
         <v>139.4934054904823</v>
       </c>
       <c r="M18" t="n">
-        <v>579.2513384016717</v>
+        <v>170.7009435262611</v>
       </c>
       <c r="N18" t="n">
         <v>181.1133352122423</v>
       </c>
       <c r="O18" t="n">
-        <v>156.5934021394671</v>
+        <v>156.5934021394672</v>
       </c>
       <c r="P18" t="n">
         <v>117.7710290901437</v>
       </c>
       <c r="Q18" t="n">
-        <v>58.3053246198143</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>85.79236654525754</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>69.58342693274167</v>
+        <v>399.6600197486297</v>
       </c>
       <c r="K20" t="n">
-        <v>258.7334645419524</v>
+        <v>125.0441858847146</v>
       </c>
       <c r="L20" t="n">
-        <v>170.2245450587873</v>
+        <v>579.2513384016718</v>
       </c>
       <c r="M20" t="n">
-        <v>579.2513384016718</v>
+        <v>202.3632840907504</v>
       </c>
       <c r="N20" t="n">
         <v>207.5252006557066</v>
@@ -36138,10 +36138,10 @@
         <v>190.5048281106356</v>
       </c>
       <c r="P20" t="n">
-        <v>579.2513384016718</v>
+        <v>148.4774175015223</v>
       </c>
       <c r="Q20" t="n">
-        <v>91.79332435123146</v>
+        <v>294.0411920607676</v>
       </c>
       <c r="R20" t="n">
         <v>146.7337926714131</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.47641286583156</v>
       </c>
       <c r="J21" t="n">
-        <v>33.7452022681745</v>
+        <v>279.8749032526525</v>
       </c>
       <c r="K21" t="n">
-        <v>223.7439017927461</v>
+        <v>491.1676166139167</v>
       </c>
       <c r="L21" t="n">
-        <v>579.2513384016718</v>
+        <v>139.4934054904823</v>
       </c>
       <c r="M21" t="n">
-        <v>579.2513384016718</v>
+        <v>170.7009435262611</v>
       </c>
       <c r="N21" t="n">
         <v>181.1133352122423</v>
       </c>
       <c r="O21" t="n">
-        <v>156.5934021394671</v>
+        <v>156.5934021394672</v>
       </c>
       <c r="P21" t="n">
         <v>117.7710290901437</v>
       </c>
       <c r="Q21" t="n">
-        <v>58.3053246198143</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R21" t="n">
-        <v>85.79236654525752</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>67.62286242449323</v>
       </c>
       <c r="K22" t="n">
-        <v>243.8628864528566</v>
+        <v>243.8628864528564</v>
       </c>
       <c r="L22" t="n">
         <v>374.811375303047</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>69.58342693274167</v>
+        <v>399.6600197486297</v>
       </c>
       <c r="K23" t="n">
-        <v>198.5268920133356</v>
+        <v>757.7760312236283</v>
       </c>
       <c r="L23" t="n">
         <v>985.4992358612665</v>
       </c>
       <c r="M23" t="n">
-        <v>1079.813701468759</v>
+        <v>616.642728008721</v>
       </c>
       <c r="N23" t="n">
-        <v>1061.2263971079</v>
+        <v>207.5252006557066</v>
       </c>
       <c r="O23" t="n">
-        <v>933.8267819355145</v>
+        <v>190.5048281106356</v>
       </c>
       <c r="P23" t="n">
-        <v>148.4774175015222</v>
+        <v>776.6284958522564</v>
       </c>
       <c r="Q23" t="n">
-        <v>91.79332435123146</v>
+        <v>506.2321861193653</v>
       </c>
       <c r="R23" t="n">
-        <v>18.45534107935138</v>
+        <v>146.7337926714131</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.47641286583156</v>
       </c>
       <c r="J24" t="n">
-        <v>33.7452022681745</v>
+        <v>79.36565684315036</v>
       </c>
       <c r="K24" t="n">
-        <v>89.64835382960774</v>
+        <v>605.8844964781613</v>
       </c>
       <c r="L24" t="n">
         <v>139.4934054904823</v>
@@ -36448,19 +36448,19 @@
         <v>170.7009435262611</v>
       </c>
       <c r="N24" t="n">
-        <v>480.4903302790621</v>
+        <v>181.1133352122423</v>
       </c>
       <c r="O24" t="n">
-        <v>925.4126493676432</v>
+        <v>156.5934021394672</v>
       </c>
       <c r="P24" t="n">
         <v>117.7710290901437</v>
       </c>
       <c r="Q24" t="n">
-        <v>58.3053246198143</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>85.79236654525754</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>69.58342693274167</v>
+        <v>69.5834269327417</v>
       </c>
       <c r="K26" t="n">
-        <v>125.0441858847146</v>
+        <v>162.310726892884</v>
       </c>
       <c r="L26" t="n">
-        <v>170.2245450587873</v>
+        <v>985.4992358612665</v>
       </c>
       <c r="M26" t="n">
-        <v>1079.813701468759</v>
+        <v>1079.81370146876</v>
       </c>
       <c r="N26" t="n">
         <v>1061.2263971079</v>
@@ -36612,13 +36612,13 @@
         <v>933.8267819355145</v>
       </c>
       <c r="P26" t="n">
-        <v>776.6284958522564</v>
+        <v>148.4774175015223</v>
       </c>
       <c r="Q26" t="n">
-        <v>187.9050262190852</v>
+        <v>91.79332435123149</v>
       </c>
       <c r="R26" t="n">
-        <v>146.7337926714131</v>
+        <v>18.4553410793514</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.47641286583156</v>
       </c>
       <c r="J27" t="n">
-        <v>33.7452022681745</v>
+        <v>279.8749032526525</v>
       </c>
       <c r="K27" t="n">
-        <v>605.8844964781613</v>
+        <v>89.64835382960777</v>
       </c>
       <c r="L27" t="n">
         <v>139.4934054904823</v>
@@ -36685,19 +36685,19 @@
         <v>170.7009435262611</v>
       </c>
       <c r="N27" t="n">
-        <v>733.0734348586847</v>
+        <v>181.1133352122423</v>
       </c>
       <c r="O27" t="n">
-        <v>156.5934021394671</v>
+        <v>156.5934021394672</v>
       </c>
       <c r="P27" t="n">
-        <v>117.7710290901437</v>
+        <v>739.4103534753011</v>
       </c>
       <c r="Q27" t="n">
-        <v>58.3053246198143</v>
+        <v>162.4637621340856</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>85.79236654525754</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>223.2900883879448</v>
+        <v>399.6600197486297</v>
       </c>
       <c r="K29" t="n">
-        <v>757.7760312236283</v>
+        <v>125.0441858847146</v>
       </c>
       <c r="L29" t="n">
         <v>985.4992358612665</v>
       </c>
       <c r="M29" t="n">
-        <v>202.3632840907503</v>
+        <v>1079.81370146876</v>
       </c>
       <c r="N29" t="n">
-        <v>1061.2263971079</v>
+        <v>969.0209857648646</v>
       </c>
       <c r="O29" t="n">
-        <v>933.8267819355145</v>
+        <v>190.5048281106356</v>
       </c>
       <c r="P29" t="n">
-        <v>148.4774175015222</v>
+        <v>148.4774175015223</v>
       </c>
       <c r="Q29" t="n">
-        <v>91.79332435123146</v>
+        <v>506.2321861193653</v>
       </c>
       <c r="R29" t="n">
         <v>146.7337926714131</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.47641286583156</v>
       </c>
       <c r="J30" t="n">
-        <v>33.7452022681745</v>
+        <v>279.8749032526525</v>
       </c>
       <c r="K30" t="n">
-        <v>89.64835382960774</v>
+        <v>405.3752500686592</v>
       </c>
       <c r="L30" t="n">
         <v>139.4934054904823</v>
       </c>
       <c r="M30" t="n">
-        <v>207.1869957757223</v>
+        <v>170.7009435262611</v>
       </c>
       <c r="N30" t="n">
         <v>181.1133352122423</v>
       </c>
       <c r="O30" t="n">
-        <v>156.5934021394671</v>
+        <v>156.5934021394672</v>
       </c>
       <c r="P30" t="n">
-        <v>739.4103534753011</v>
+        <v>117.7710290901437</v>
       </c>
       <c r="Q30" t="n">
         <v>468.3761902801918</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>85.79236654525754</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>69.58342693274167</v>
+        <v>399.6600197486297</v>
       </c>
       <c r="K32" t="n">
-        <v>125.0441858847146</v>
+        <v>757.7760312236283</v>
       </c>
       <c r="L32" t="n">
-        <v>985.4992358612665</v>
+        <v>620.2405608339067</v>
       </c>
       <c r="M32" t="n">
-        <v>1079.813701468759</v>
+        <v>202.3632840907504</v>
       </c>
       <c r="N32" t="n">
-        <v>1061.2263971079</v>
+        <v>207.5252006557066</v>
       </c>
       <c r="O32" t="n">
         <v>933.8267819355145</v>
       </c>
       <c r="P32" t="n">
-        <v>148.4774175015222</v>
+        <v>776.6284958522564</v>
       </c>
       <c r="Q32" t="n">
-        <v>129.0598653594012</v>
+        <v>506.2321861193653</v>
       </c>
       <c r="R32" t="n">
-        <v>18.45534107935138</v>
+        <v>146.7337926714131</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.47641286583156</v>
       </c>
       <c r="J33" t="n">
-        <v>33.7452022681745</v>
+        <v>79.36565684315049</v>
       </c>
       <c r="K33" t="n">
-        <v>89.64835382960774</v>
+        <v>605.8844964781613</v>
       </c>
       <c r="L33" t="n">
         <v>139.4934054904823</v>
@@ -37159,19 +37159,19 @@
         <v>170.7009435262611</v>
       </c>
       <c r="N33" t="n">
-        <v>480.4903302790622</v>
+        <v>181.1133352122423</v>
       </c>
       <c r="O33" t="n">
-        <v>925.4126493676432</v>
+        <v>156.5934021394672</v>
       </c>
       <c r="P33" t="n">
         <v>117.7710290901437</v>
       </c>
       <c r="Q33" t="n">
-        <v>58.3053246198143</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>85.79236654525754</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>399.6600197486297</v>
       </c>
       <c r="K35" t="n">
-        <v>321.8799851690014</v>
+        <v>125.0441858847146</v>
       </c>
       <c r="L35" t="n">
         <v>170.2245450587873</v>
       </c>
       <c r="M35" t="n">
-        <v>202.3632840907503</v>
+        <v>399.199083375037</v>
       </c>
       <c r="N35" t="n">
         <v>207.5252006557066</v>
@@ -37323,7 +37323,7 @@
         <v>190.5048281106356</v>
       </c>
       <c r="P35" t="n">
-        <v>148.4774175015222</v>
+        <v>148.4774175015223</v>
       </c>
       <c r="Q35" t="n">
         <v>506.2321861193653</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.47641286583156</v>
       </c>
       <c r="J36" t="n">
-        <v>279.8749032526525</v>
+        <v>33.74520226817452</v>
       </c>
       <c r="K36" t="n">
-        <v>471.9569622289363</v>
+        <v>89.64835382960777</v>
       </c>
       <c r="L36" t="n">
+        <v>139.4934054904823</v>
+      </c>
+      <c r="M36" t="n">
+        <v>334.4195375603609</v>
+      </c>
+      <c r="N36" t="n">
         <v>579.2513384016718</v>
       </c>
-      <c r="M36" t="n">
-        <v>170.7009435262611</v>
-      </c>
-      <c r="N36" t="n">
-        <v>181.1133352122423</v>
-      </c>
       <c r="O36" t="n">
-        <v>156.5934021394671</v>
+        <v>156.5934021394672</v>
       </c>
       <c r="P36" t="n">
         <v>117.7710290901437</v>
       </c>
       <c r="Q36" t="n">
-        <v>58.3053246198143</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>85.79236654525754</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>67.62286242449323</v>
+        <v>67.62286242449302</v>
       </c>
       <c r="K37" t="n">
         <v>243.8628864528566</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>69.58342693274167</v>
+        <v>399.6600197486297</v>
       </c>
       <c r="K38" t="n">
-        <v>579.2513384016718</v>
+        <v>125.0441858847146</v>
       </c>
       <c r="L38" t="n">
-        <v>579.2513384016718</v>
+        <v>170.2245450587873</v>
       </c>
       <c r="M38" t="n">
-        <v>408.7590436912793</v>
+        <v>202.3632840907504</v>
       </c>
       <c r="N38" t="n">
         <v>207.5252006557066</v>
@@ -37560,13 +37560,13 @@
         <v>190.5048281106356</v>
       </c>
       <c r="P38" t="n">
-        <v>148.4774175015222</v>
+        <v>345.3132167858089</v>
       </c>
       <c r="Q38" t="n">
-        <v>91.79332435123146</v>
+        <v>506.2321861193653</v>
       </c>
       <c r="R38" t="n">
-        <v>18.45534107935138</v>
+        <v>146.7337926714131</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.47641286583156</v>
       </c>
       <c r="J39" t="n">
-        <v>33.7452022681745</v>
+        <v>279.8749032526525</v>
       </c>
       <c r="K39" t="n">
-        <v>89.64835382960774</v>
+        <v>405.3752500686592</v>
       </c>
       <c r="L39" t="n">
-        <v>579.2513384016718</v>
+        <v>139.4934054904823</v>
       </c>
       <c r="M39" t="n">
-        <v>579.2513384016718</v>
+        <v>170.7009435262611</v>
       </c>
       <c r="N39" t="n">
         <v>181.1133352122423</v>
       </c>
       <c r="O39" t="n">
-        <v>376.4813166478629</v>
+        <v>156.5934021394672</v>
       </c>
       <c r="P39" t="n">
         <v>117.7710290901437</v>
       </c>
       <c r="Q39" t="n">
-        <v>58.3053246198143</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>85.79236654525754</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>225.0198331472445</v>
+        <v>399.6600197486297</v>
       </c>
       <c r="K41" t="n">
         <v>125.0441858847146</v>
       </c>
       <c r="L41" t="n">
-        <v>579.2513384016718</v>
+        <v>170.2245450587873</v>
       </c>
       <c r="M41" t="n">
-        <v>579.2513384016718</v>
+        <v>202.3632840907504</v>
       </c>
       <c r="N41" t="n">
         <v>207.5252006557066</v>
@@ -37797,13 +37797,13 @@
         <v>190.5048281106356</v>
       </c>
       <c r="P41" t="n">
-        <v>148.4774175015222</v>
+        <v>473.5916683778708</v>
       </c>
       <c r="Q41" t="n">
-        <v>91.79332435123146</v>
+        <v>506.2321861193653</v>
       </c>
       <c r="R41" t="n">
-        <v>146.7337926714131</v>
+        <v>18.4553410793514</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>279.8749032526525</v>
       </c>
       <c r="K42" t="n">
-        <v>89.64835382960774</v>
+        <v>89.64835382960777</v>
       </c>
       <c r="L42" t="n">
         <v>139.4934054904823</v>
@@ -37870,19 +37870,19 @@
         <v>170.7009435262611</v>
       </c>
       <c r="N42" t="n">
+        <v>181.1133352122423</v>
+      </c>
+      <c r="O42" t="n">
+        <v>156.5934021394672</v>
+      </c>
+      <c r="P42" t="n">
         <v>579.2513384016718</v>
       </c>
-      <c r="O42" t="n">
-        <v>579.2513384016718</v>
-      </c>
-      <c r="P42" t="n">
-        <v>117.7710290901437</v>
-      </c>
       <c r="Q42" t="n">
-        <v>59.57592647869802</v>
+        <v>333.0991900735465</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>85.79236654525754</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>69.58342693274167</v>
+        <v>399.6600197486297</v>
       </c>
       <c r="K44" t="n">
         <v>125.0441858847146</v>
       </c>
       <c r="L44" t="n">
-        <v>579.2513384016718</v>
+        <v>170.2245450587873</v>
       </c>
       <c r="M44" t="n">
-        <v>579.2513384016718</v>
+        <v>202.3632840907504</v>
       </c>
       <c r="N44" t="n">
-        <v>491.2400584622713</v>
+        <v>207.5252006557066</v>
       </c>
       <c r="O44" t="n">
         <v>190.5048281106356</v>
       </c>
       <c r="P44" t="n">
-        <v>148.4774175015222</v>
+        <v>579.2513384016718</v>
       </c>
       <c r="Q44" t="n">
-        <v>91.79332435123146</v>
+        <v>272.2940645035025</v>
       </c>
       <c r="R44" t="n">
-        <v>18.45534107935138</v>
+        <v>146.7337926714131</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>279.8749032526525</v>
       </c>
       <c r="K45" t="n">
-        <v>89.64835382960774</v>
+        <v>405.3752500686592</v>
       </c>
       <c r="L45" t="n">
         <v>139.4934054904823</v>
@@ -38110,7 +38110,7 @@
         <v>181.1133352122423</v>
       </c>
       <c r="O45" t="n">
-        <v>558.1126649237759</v>
+        <v>156.5934021394672</v>
       </c>
       <c r="P45" t="n">
         <v>117.7710290901437</v>
@@ -38119,7 +38119,7 @@
         <v>468.3761902801918</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>85.79236654525754</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>67.62286242449323</v>
+        <v>67.62286242449302</v>
       </c>
       <c r="K46" t="n">
         <v>243.8628864528566</v>
